--- a/data/SAEM-1 Data.xlsx
+++ b/data/SAEM-1 Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="455">
   <si>
     <t>Building</t>
   </si>
@@ -1315,9 +1315,6 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>C820</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -1364,9 +1361,6 @@
   </si>
   <si>
     <t>H&amp;W</t>
-  </si>
-  <si>
-    <t>Student Engagement Meeting</t>
   </si>
   <si>
     <t>Meeting</t>
@@ -1971,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>13</v>
@@ -4518,7 +4512,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -12905,7 +12899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -12941,10 +12935,10 @@
         <v>40</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>210</v>
@@ -14235,7 +14229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14280,7 +14274,7 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" ca="1" si="0">RANDBETWEEN(345000,624900)</f>
-        <v>492375</v>
+        <v>529778</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14292,7 +14286,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>573110</v>
+        <v>556276</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14304,7 +14298,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>563427</v>
+        <v>392205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14320,7 +14314,7 @@
       </c>
       <c r="D8">
         <f ca="1">RANDBETWEEN(345000,624900)</f>
-        <v>521845</v>
+        <v>555178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14332,7 +14326,7 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D17" ca="1" si="1">RANDBETWEEN(345000,624900)</f>
-        <v>469237</v>
+        <v>499640</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14344,7 +14338,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>541753</v>
+        <v>406947</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14361,7 +14355,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>414658</v>
+        <v>387651</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14373,7 +14367,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>373815</v>
+        <v>618787</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14385,7 +14379,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>518946</v>
+        <v>458297</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14397,7 +14391,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>345814</v>
+        <v>400805</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14409,7 +14403,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>346303</v>
+        <v>491872</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -14421,7 +14415,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>495683</v>
+        <v>534198</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14438,7 +14432,7 @@
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D24" ca="1" si="2">RANDBETWEEN(345000,624900)</f>
-        <v>505791</v>
+        <v>532700</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -14450,7 +14444,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>358199</v>
+        <v>446722</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -14462,7 +14456,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>534570</v>
+        <v>620059</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -14474,7 +14468,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>454553</v>
+        <v>613579</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -14486,11 +14480,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C35" ca="1" si="3">RANDBETWEEN(345000,624900)</f>
-        <v>604267</v>
+        <v>520918</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26" ca="1" si="4">RANDBETWEEN(345000,624900)</f>
-        <v>487817</v>
+        <v>421960</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -14502,7 +14496,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>576385</v>
+        <v>470337</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -14514,7 +14508,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>396048</v>
+        <v>537424</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -14526,7 +14520,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>516874</v>
+        <v>480639</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -14538,7 +14532,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>526694</v>
+        <v>485459</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -14550,7 +14544,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>519052</v>
+        <v>552390</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -14562,7 +14556,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>397185</v>
+        <v>484628</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14574,7 +14568,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>498229</v>
+        <v>465928</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14586,7 +14580,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>539202</v>
+        <v>504167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14598,7 +14592,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>424162</v>
+        <v>586544</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14610,11 +14604,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C46" ca="1" si="5">RANDBETWEEN(345000,624900)</f>
-        <v>403763</v>
+        <v>542566</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37" ca="1" si="6">RANDBETWEEN(345000,624900)</f>
-        <v>576949</v>
+        <v>382250</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -14626,7 +14620,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>459845</v>
+        <v>503596</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -14638,7 +14632,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="5"/>
-        <v>497649</v>
+        <v>528244</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -14650,7 +14644,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="5"/>
-        <v>510134</v>
+        <v>509447</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -14662,7 +14656,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="5"/>
-        <v>601210</v>
+        <v>582725</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -14674,7 +14668,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="5"/>
-        <v>600358</v>
+        <v>562337</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -14686,7 +14680,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="5"/>
-        <v>467206</v>
+        <v>518963</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -14698,7 +14692,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="5"/>
-        <v>516695</v>
+        <v>475647</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -14710,7 +14704,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="5"/>
-        <v>613262</v>
+        <v>581346</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -14722,7 +14716,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="5"/>
-        <v>494934</v>
+        <v>407284</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -14734,11 +14728,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:C57" ca="1" si="7">RANDBETWEEN(345000,624900)</f>
-        <v>425949</v>
+        <v>472916</v>
       </c>
       <c r="D48">
         <f t="shared" ref="D48" ca="1" si="8">RANDBETWEEN(345000,624900)</f>
-        <v>384163</v>
+        <v>458440</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -14750,7 +14744,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>396815</v>
+        <v>536715</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -14762,7 +14756,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>548312</v>
+        <v>538497</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -14774,7 +14768,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>389166</v>
+        <v>412469</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -14786,7 +14780,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>418673</v>
+        <v>530180</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -14798,7 +14792,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>448810</v>
+        <v>569558</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -14810,7 +14804,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>475861</v>
+        <v>574612</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -14822,7 +14816,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>570348</v>
+        <v>536489</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -14834,7 +14828,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>355786</v>
+        <v>354381</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -14846,7 +14840,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>566035</v>
+        <v>508558</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -14868,7 +14862,7 @@
       </c>
       <c r="E60">
         <f t="shared" ref="E60:E63" ca="1" si="9">RANDBETWEEN(345000,624900)</f>
-        <v>534904</v>
+        <v>600177</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -14880,7 +14874,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>600759</v>
+        <v>536441</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -14892,7 +14886,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>519769</v>
+        <v>612789</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -14904,7 +14898,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>606827</v>
+        <v>483225</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -14916,7 +14910,7 @@
       </c>
       <c r="D64">
         <f t="shared" ref="D64:D65" ca="1" si="10">RANDBETWEEN(345000,624900)</f>
-        <v>405587</v>
+        <v>356893</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -14928,7 +14922,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="10"/>
-        <v>576512</v>
+        <v>571507</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14945,7 +14939,7 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D75" ca="1" si="11">RANDBETWEEN(345000,624900)</f>
-        <v>479616</v>
+        <v>386064</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -14957,7 +14951,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
-        <v>351787</v>
+        <v>427240</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -14969,7 +14963,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
-        <v>357160</v>
+        <v>509128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -14981,7 +14975,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
-        <v>550399</v>
+        <v>522315</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -14993,7 +14987,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
-        <v>349472</v>
+        <v>385673</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -15005,7 +14999,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
-        <v>521809</v>
+        <v>623879</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -15017,7 +15011,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
-        <v>558654</v>
+        <v>586323</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -15029,11 +15023,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:C104" ca="1" si="12">RANDBETWEEN(345000,624900)</f>
-        <v>566350</v>
+        <v>461962</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>402216</v>
+        <v>511036</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -15045,7 +15039,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="12"/>
-        <v>427979</v>
+        <v>407072</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -15057,7 +15051,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="12"/>
-        <v>544115</v>
+        <v>475507</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -15069,7 +15063,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="12"/>
-        <v>603793</v>
+        <v>580851</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -15081,7 +15075,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="12"/>
-        <v>385416</v>
+        <v>574625</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -15093,7 +15087,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="12"/>
-        <v>402737</v>
+        <v>504127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -15105,7 +15099,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="12"/>
-        <v>470428</v>
+        <v>621539</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -15117,7 +15111,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="12"/>
-        <v>587357</v>
+        <v>498065</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -15129,7 +15123,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="12"/>
-        <v>533239</v>
+        <v>415839</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -15141,7 +15135,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="12"/>
-        <v>493630</v>
+        <v>568430</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -15153,7 +15147,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="12"/>
-        <v>391836</v>
+        <v>376785</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -15165,7 +15159,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="12"/>
-        <v>425952</v>
+        <v>583207</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -15177,7 +15171,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="12"/>
-        <v>526552</v>
+        <v>347694</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -15189,7 +15183,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="12"/>
-        <v>427691</v>
+        <v>401141</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -15201,7 +15195,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>563311</v>
+        <v>519412</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -15213,7 +15207,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>359144</v>
+        <v>380888</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -15225,7 +15219,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>519472</v>
+        <v>559303</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -15237,7 +15231,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>592879</v>
+        <v>524551</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -15249,7 +15243,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>550055</v>
+        <v>346649</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -15261,7 +15255,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>558224</v>
+        <v>496390</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -15273,7 +15267,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>576861</v>
+        <v>487099</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -15285,7 +15279,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>481930</v>
+        <v>503773</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15297,7 +15291,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>476515</v>
+        <v>496978</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15309,7 +15303,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>404021</v>
+        <v>438685</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -15321,7 +15315,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>445949</v>
+        <v>472105</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -15333,7 +15327,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>493054</v>
+        <v>427373</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -15345,7 +15339,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>454543</v>
+        <v>614032</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -15357,7 +15351,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="12"/>
-        <v>496424</v>
+        <v>599523</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -15369,7 +15363,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="12"/>
-        <v>416321</v>
+        <v>555415</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -15381,7 +15375,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="12"/>
-        <v>622049</v>
+        <v>608681</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -15393,11 +15387,11 @@
       </c>
       <c r="C106">
         <f t="shared" ref="C106:D169" ca="1" si="13">RANDBETWEEN(345000,624900)</f>
-        <v>546649</v>
+        <v>619678</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="13"/>
-        <v>349449</v>
+        <v>624193</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -15409,7 +15403,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="13"/>
-        <v>604945</v>
+        <v>531514</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -15421,7 +15415,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="13"/>
-        <v>434401</v>
+        <v>377374</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -15433,7 +15427,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="13"/>
-        <v>540739</v>
+        <v>386473</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -15445,7 +15439,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="13"/>
-        <v>406455</v>
+        <v>380560</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -15457,7 +15451,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="13"/>
-        <v>616222</v>
+        <v>609142</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -15469,7 +15463,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="13"/>
-        <v>410070</v>
+        <v>430269</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -15481,7 +15475,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="13"/>
-        <v>540014</v>
+        <v>595904</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15493,7 +15487,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="13"/>
-        <v>517613</v>
+        <v>530562</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -15505,7 +15499,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="13"/>
-        <v>491685</v>
+        <v>528538</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -15517,7 +15511,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="13"/>
-        <v>488279</v>
+        <v>481481</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -15529,7 +15523,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="13"/>
-        <v>443499</v>
+        <v>353786</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -15541,7 +15535,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="13"/>
-        <v>517315</v>
+        <v>541416</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -15553,7 +15547,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="13"/>
-        <v>613614</v>
+        <v>567132</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -15565,7 +15559,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="13"/>
-        <v>592574</v>
+        <v>446486</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -15577,7 +15571,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="13"/>
-        <v>583006</v>
+        <v>345298</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -15589,7 +15583,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="13"/>
-        <v>425426</v>
+        <v>413326</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -15601,7 +15595,7 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="13"/>
-        <v>497254</v>
+        <v>367548</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -15613,7 +15607,7 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="13"/>
-        <v>408161</v>
+        <v>602091</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -15625,7 +15619,7 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="13"/>
-        <v>619827</v>
+        <v>564875</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -15637,7 +15631,7 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="13"/>
-        <v>440985</v>
+        <v>403727</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -15649,7 +15643,7 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="13"/>
-        <v>503857</v>
+        <v>481554</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -15661,7 +15655,7 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="13"/>
-        <v>584968</v>
+        <v>555227</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -15673,7 +15667,7 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="13"/>
-        <v>456557</v>
+        <v>507751</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -15685,7 +15679,7 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="13"/>
-        <v>549590</v>
+        <v>348074</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -15697,7 +15691,7 @@
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="13"/>
-        <v>540210</v>
+        <v>588199</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -15709,7 +15703,7 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="13"/>
-        <v>455135</v>
+        <v>349398</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -15721,7 +15715,7 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="13"/>
-        <v>410478</v>
+        <v>471524</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -15733,7 +15727,7 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="13"/>
-        <v>349806</v>
+        <v>579820</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -15745,7 +15739,7 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="13"/>
-        <v>547453</v>
+        <v>552300</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -15757,11 +15751,11 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="13"/>
-        <v>459901</v>
+        <v>465219</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="13"/>
-        <v>619069</v>
+        <v>599836</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -15773,7 +15767,7 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="13"/>
-        <v>506251</v>
+        <v>436544</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -15785,7 +15779,7 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="13"/>
-        <v>418946</v>
+        <v>551630</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -15797,7 +15791,7 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="13"/>
-        <v>602578</v>
+        <v>548714</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -15809,7 +15803,7 @@
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="13"/>
-        <v>600083</v>
+        <v>556380</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -15821,7 +15815,7 @@
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="13"/>
-        <v>360927</v>
+        <v>406798</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -15833,7 +15827,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="13"/>
-        <v>439671</v>
+        <v>455597</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -15845,7 +15839,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="13"/>
-        <v>402776</v>
+        <v>409334</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15857,7 +15851,7 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="13"/>
-        <v>460294</v>
+        <v>483577</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15869,7 +15863,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="13"/>
-        <v>557644</v>
+        <v>527960</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15881,7 +15875,7 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="13"/>
-        <v>534072</v>
+        <v>468863</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15893,7 +15887,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="13"/>
-        <v>512501</v>
+        <v>616997</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15905,7 +15899,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="13"/>
-        <v>518615</v>
+        <v>575950</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15917,7 +15911,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="13"/>
-        <v>590462</v>
+        <v>356881</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15929,7 +15923,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="13"/>
-        <v>563052</v>
+        <v>576148</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15941,7 +15935,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="13"/>
-        <v>487323</v>
+        <v>398183</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15953,7 +15947,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="13"/>
-        <v>385799</v>
+        <v>448907</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15965,7 +15959,7 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="13"/>
-        <v>596691</v>
+        <v>544963</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15977,7 +15971,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="13"/>
-        <v>419249</v>
+        <v>396166</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15989,7 +15983,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="13"/>
-        <v>484953</v>
+        <v>553470</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -16001,7 +15995,7 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="13"/>
-        <v>455574</v>
+        <v>478656</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -16013,7 +16007,7 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="13"/>
-        <v>520729</v>
+        <v>367044</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -16025,7 +16019,7 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="13"/>
-        <v>470562</v>
+        <v>376423</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -16037,7 +16031,7 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="13"/>
-        <v>514935</v>
+        <v>499387</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -16049,7 +16043,7 @@
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="13"/>
-        <v>458322</v>
+        <v>577903</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -16061,7 +16055,7 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="13"/>
-        <v>526107</v>
+        <v>459619</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -16073,7 +16067,7 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="13"/>
-        <v>369458</v>
+        <v>414364</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16085,7 +16079,7 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="13"/>
-        <v>350322</v>
+        <v>609249</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -16097,7 +16091,7 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="13"/>
-        <v>391390</v>
+        <v>539140</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -16109,7 +16103,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="13"/>
-        <v>405228</v>
+        <v>448004</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -16121,11 +16115,11 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="13"/>
-        <v>390442</v>
+        <v>539007</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="13"/>
-        <v>606832</v>
+        <v>411120</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -16137,7 +16131,7 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="13"/>
-        <v>555368</v>
+        <v>361204</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -16149,7 +16143,7 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:C197" ca="1" si="14">RANDBETWEEN(345000,624900)</f>
-        <v>601379</v>
+        <v>554940</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -16161,7 +16155,7 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="14"/>
-        <v>526018</v>
+        <v>607347</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -16173,7 +16167,7 @@
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="14"/>
-        <v>613234</v>
+        <v>400706</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -16185,7 +16179,7 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="14"/>
-        <v>600638</v>
+        <v>378480</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -16197,7 +16191,7 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="14"/>
-        <v>489402</v>
+        <v>457460</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -16209,7 +16203,7 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="14"/>
-        <v>607063</v>
+        <v>620382</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -16221,7 +16215,7 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="14"/>
-        <v>617687</v>
+        <v>370960</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -16233,7 +16227,7 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="14"/>
-        <v>579366</v>
+        <v>547095</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -16245,7 +16239,7 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="14"/>
-        <v>428793</v>
+        <v>554603</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -16257,7 +16251,7 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="14"/>
-        <v>438844</v>
+        <v>378746</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -16269,7 +16263,7 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="14"/>
-        <v>507996</v>
+        <v>453905</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -16281,7 +16275,7 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="14"/>
-        <v>455131</v>
+        <v>588119</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -16293,7 +16287,7 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="14"/>
-        <v>444158</v>
+        <v>346740</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -16305,7 +16299,7 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="14"/>
-        <v>596835</v>
+        <v>409362</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -16317,7 +16311,7 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="14"/>
-        <v>535529</v>
+        <v>424393</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -16329,7 +16323,7 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="14"/>
-        <v>565868</v>
+        <v>431370</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -16341,7 +16335,7 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="14"/>
-        <v>540029</v>
+        <v>573165</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -16353,7 +16347,7 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="14"/>
-        <v>526323</v>
+        <v>533397</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -16365,7 +16359,7 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="14"/>
-        <v>587779</v>
+        <v>453240</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -16377,7 +16371,7 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="14"/>
-        <v>437926</v>
+        <v>620871</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -16389,7 +16383,7 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="14"/>
-        <v>351695</v>
+        <v>620638</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -16401,7 +16395,7 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="14"/>
-        <v>561027</v>
+        <v>359412</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -16413,7 +16407,7 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="14"/>
-        <v>559835</v>
+        <v>519912</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -16425,7 +16419,7 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="14"/>
-        <v>623049</v>
+        <v>553224</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -16437,7 +16431,7 @@
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="14"/>
-        <v>620533</v>
+        <v>433085</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -16449,7 +16443,7 @@
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="14"/>
-        <v>615162</v>
+        <v>428740</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -16461,7 +16455,7 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="14"/>
-        <v>354465</v>
+        <v>464738</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -16473,7 +16467,7 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="14"/>
-        <v>419854</v>
+        <v>463218</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -16485,11 +16479,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D228" ca="1" si="15">RANDBETWEEN(345000,624900)</f>
-        <v>349775</v>
+        <v>354862</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="15"/>
-        <v>458577</v>
+        <v>569393</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -16501,7 +16495,7 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="15"/>
-        <v>519855</v>
+        <v>462571</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -16513,7 +16507,7 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="15"/>
-        <v>575899</v>
+        <v>438976</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -16525,7 +16519,7 @@
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="15"/>
-        <v>617164</v>
+        <v>604144</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -16537,7 +16531,7 @@
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="15"/>
-        <v>421272</v>
+        <v>499954</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -16549,7 +16543,7 @@
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="15"/>
-        <v>592293</v>
+        <v>523375</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -16561,7 +16555,7 @@
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="15"/>
-        <v>440241</v>
+        <v>553599</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -16573,7 +16567,7 @@
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="15"/>
-        <v>459879</v>
+        <v>623584</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -16585,7 +16579,7 @@
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="15"/>
-        <v>616968</v>
+        <v>482471</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -16597,7 +16591,7 @@
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="15"/>
-        <v>477838</v>
+        <v>507232</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -16609,7 +16603,7 @@
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="15"/>
-        <v>561436</v>
+        <v>536193</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -16621,7 +16615,7 @@
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="15"/>
-        <v>518248</v>
+        <v>522574</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -16633,7 +16627,7 @@
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="15"/>
-        <v>426723</v>
+        <v>385607</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -16645,7 +16639,7 @@
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="15"/>
-        <v>464818</v>
+        <v>479655</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -16657,7 +16651,7 @@
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="15"/>
-        <v>424244</v>
+        <v>360450</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -16669,7 +16663,7 @@
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="15"/>
-        <v>547356</v>
+        <v>601543</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -16681,7 +16675,7 @@
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="15"/>
-        <v>354862</v>
+        <v>622161</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -16693,7 +16687,7 @@
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="15"/>
-        <v>415034</v>
+        <v>518219</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -16705,7 +16699,7 @@
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="15"/>
-        <v>372437</v>
+        <v>354851</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -16717,7 +16711,7 @@
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="15"/>
-        <v>549396</v>
+        <v>377465</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -16729,7 +16723,7 @@
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="15"/>
-        <v>401377</v>
+        <v>548407</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -16741,7 +16735,7 @@
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="15"/>
-        <v>415278</v>
+        <v>421265</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -16753,7 +16747,7 @@
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="15"/>
-        <v>404293</v>
+        <v>563378</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -16765,7 +16759,7 @@
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="15"/>
-        <v>364748</v>
+        <v>545214</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -16777,7 +16771,7 @@
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="15"/>
-        <v>427493</v>
+        <v>375420</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -16789,7 +16783,7 @@
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="15"/>
-        <v>372080</v>
+        <v>514430</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -16801,7 +16795,7 @@
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="15"/>
-        <v>350809</v>
+        <v>408091</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -16813,7 +16807,7 @@
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="15"/>
-        <v>396388</v>
+        <v>375937</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -16825,7 +16819,7 @@
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="15"/>
-        <v>533656</v>
+        <v>411073</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -16837,7 +16831,7 @@
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="15"/>
-        <v>595273</v>
+        <v>372863</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -16849,11 +16843,11 @@
       </c>
       <c r="C230">
         <f t="shared" ref="C230:E292" ca="1" si="16">RANDBETWEEN(345000,624900)</f>
-        <v>597925</v>
+        <v>438624</v>
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="16"/>
-        <v>613016</v>
+        <v>587664</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -16865,7 +16859,7 @@
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="16"/>
-        <v>423285</v>
+        <v>590002</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -16877,7 +16871,7 @@
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="16"/>
-        <v>433821</v>
+        <v>497155</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -16889,7 +16883,7 @@
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="16"/>
-        <v>368345</v>
+        <v>353851</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -16901,7 +16895,7 @@
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="16"/>
-        <v>482879</v>
+        <v>423210</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -16913,7 +16907,7 @@
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="16"/>
-        <v>378613</v>
+        <v>526729</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -16925,7 +16919,7 @@
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="16"/>
-        <v>505585</v>
+        <v>623795</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -16937,7 +16931,7 @@
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="16"/>
-        <v>400381</v>
+        <v>530310</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -16949,7 +16943,7 @@
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="16"/>
-        <v>392003</v>
+        <v>585846</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -16961,7 +16955,7 @@
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="16"/>
-        <v>415996</v>
+        <v>414745</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -16973,7 +16967,7 @@
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="16"/>
-        <v>606499</v>
+        <v>421503</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -16985,7 +16979,7 @@
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="16"/>
-        <v>578101</v>
+        <v>469986</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -16997,7 +16991,7 @@
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="16"/>
-        <v>542801</v>
+        <v>380821</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -17009,7 +17003,7 @@
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="16"/>
-        <v>475348</v>
+        <v>559094</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -17021,7 +17015,7 @@
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="16"/>
-        <v>527397</v>
+        <v>545857</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -17033,7 +17027,7 @@
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="16"/>
-        <v>537115</v>
+        <v>413801</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -17045,7 +17039,7 @@
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="16"/>
-        <v>470329</v>
+        <v>589029</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -17057,7 +17051,7 @@
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="16"/>
-        <v>413126</v>
+        <v>619038</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17063,7 @@
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="16"/>
-        <v>589419</v>
+        <v>571930</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -17081,7 +17075,7 @@
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="16"/>
-        <v>529580</v>
+        <v>375439</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -17093,7 +17087,7 @@
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="16"/>
-        <v>411677</v>
+        <v>473619</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -17105,7 +17099,7 @@
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="16"/>
-        <v>538133</v>
+        <v>580201</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -17117,7 +17111,7 @@
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="16"/>
-        <v>407397</v>
+        <v>423429</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -17129,7 +17123,7 @@
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="16"/>
-        <v>530245</v>
+        <v>391529</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -17141,7 +17135,7 @@
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="16"/>
-        <v>403159</v>
+        <v>597222</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -17153,7 +17147,7 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="16"/>
-        <v>579478</v>
+        <v>562612</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -17165,7 +17159,7 @@
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="16"/>
-        <v>460371</v>
+        <v>434938</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -17177,7 +17171,7 @@
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="16"/>
-        <v>356470</v>
+        <v>370108</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -17189,7 +17183,7 @@
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="16"/>
-        <v>446746</v>
+        <v>451438</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -17201,7 +17195,7 @@
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="16"/>
-        <v>405286</v>
+        <v>501542</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -17213,11 +17207,11 @@
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="16"/>
-        <v>369150</v>
+        <v>472507</v>
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="16"/>
-        <v>474668</v>
+        <v>557267</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -17229,7 +17223,7 @@
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="16"/>
-        <v>469628</v>
+        <v>362091</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -17241,7 +17235,7 @@
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="16"/>
-        <v>513652</v>
+        <v>487407</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -17253,7 +17247,7 @@
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="16"/>
-        <v>410974</v>
+        <v>521331</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -17265,7 +17259,7 @@
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="16"/>
-        <v>574549</v>
+        <v>427561</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -17277,7 +17271,7 @@
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="16"/>
-        <v>519402</v>
+        <v>364102</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -17289,7 +17283,7 @@
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="16"/>
-        <v>448468</v>
+        <v>569675</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -17301,7 +17295,7 @@
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="16"/>
-        <v>388625</v>
+        <v>483793</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -17313,7 +17307,7 @@
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="16"/>
-        <v>544310</v>
+        <v>503725</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -17325,7 +17319,7 @@
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="16"/>
-        <v>364289</v>
+        <v>506343</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -17337,7 +17331,7 @@
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="16"/>
-        <v>407464</v>
+        <v>537757</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -17349,7 +17343,7 @@
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="16"/>
-        <v>524152</v>
+        <v>404365</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -17361,7 +17355,7 @@
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="16"/>
-        <v>593367</v>
+        <v>559350</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -17373,7 +17367,7 @@
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="16"/>
-        <v>613180</v>
+        <v>586999</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -17385,7 +17379,7 @@
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="16"/>
-        <v>358733</v>
+        <v>621682</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -17397,7 +17391,7 @@
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="16"/>
-        <v>561360</v>
+        <v>506514</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -17409,7 +17403,7 @@
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="16"/>
-        <v>356644</v>
+        <v>357768</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -17421,7 +17415,7 @@
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="16"/>
-        <v>400360</v>
+        <v>560177</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -17433,7 +17427,7 @@
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="16"/>
-        <v>537453</v>
+        <v>524458</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -17445,7 +17439,7 @@
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="16"/>
-        <v>373085</v>
+        <v>485952</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -17457,7 +17451,7 @@
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="16"/>
-        <v>418374</v>
+        <v>597979</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -17469,7 +17463,7 @@
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="16"/>
-        <v>504133</v>
+        <v>405098</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -17481,7 +17475,7 @@
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="16"/>
-        <v>396092</v>
+        <v>406524</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -17493,7 +17487,7 @@
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="16"/>
-        <v>463899</v>
+        <v>442516</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -17505,7 +17499,7 @@
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="16"/>
-        <v>500364</v>
+        <v>382754</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -17517,7 +17511,7 @@
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="16"/>
-        <v>412483</v>
+        <v>569414</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -17529,7 +17523,7 @@
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="16"/>
-        <v>469462</v>
+        <v>587942</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -17541,7 +17535,7 @@
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="16"/>
-        <v>421581</v>
+        <v>583443</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -17553,7 +17547,7 @@
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="16"/>
-        <v>533246</v>
+        <v>544366</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -17565,7 +17559,7 @@
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="16"/>
-        <v>473249</v>
+        <v>521154</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -17582,7 +17576,7 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="16"/>
-        <v>572500</v>
+        <v>445347</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17594,7 +17588,7 @@
       </c>
       <c r="E293">
         <f t="shared" ref="E293:E301" ca="1" si="17">RANDBETWEEN(345000,624900)</f>
-        <v>542377</v>
+        <v>493979</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17606,7 +17600,7 @@
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="17"/>
-        <v>424436</v>
+        <v>438565</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17618,7 +17612,7 @@
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="17"/>
-        <v>484214</v>
+        <v>377126</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17630,7 +17624,7 @@
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="17"/>
-        <v>483963</v>
+        <v>527200</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17642,7 +17636,7 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="17"/>
-        <v>604526</v>
+        <v>349740</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17654,7 +17648,7 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="17"/>
-        <v>450114</v>
+        <v>517270</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17666,7 +17660,7 @@
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="17"/>
-        <v>569955</v>
+        <v>468704</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17678,7 +17672,7 @@
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="17"/>
-        <v>498362</v>
+        <v>488594</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17690,7 +17684,7 @@
       </c>
       <c r="E301">
         <f t="shared" ca="1" si="17"/>
-        <v>458142</v>
+        <v>527133</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17702,7 +17696,7 @@
       </c>
       <c r="D302">
         <f t="shared" ref="D302:D307" ca="1" si="18">RANDBETWEEN(345000,624900)</f>
-        <v>376565</v>
+        <v>586999</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17714,7 +17708,7 @@
       </c>
       <c r="D303">
         <f t="shared" ca="1" si="18"/>
-        <v>596752</v>
+        <v>552553</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17726,7 +17720,7 @@
       </c>
       <c r="D304">
         <f t="shared" ca="1" si="18"/>
-        <v>566541</v>
+        <v>412235</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17738,7 +17732,7 @@
       </c>
       <c r="D305">
         <f t="shared" ca="1" si="18"/>
-        <v>618963</v>
+        <v>585627</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17750,7 +17744,7 @@
       </c>
       <c r="D306">
         <f t="shared" ca="1" si="18"/>
-        <v>389335</v>
+        <v>580935</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17762,7 +17756,7 @@
       </c>
       <c r="D307">
         <f t="shared" ca="1" si="18"/>
-        <v>610491</v>
+        <v>373233</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17774,7 +17768,7 @@
       </c>
       <c r="E308">
         <f t="shared" ref="E308" ca="1" si="19">RANDBETWEEN(345000,624900)</f>
-        <v>374607</v>
+        <v>486545</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17791,11 +17785,11 @@
       </c>
       <c r="C310">
         <f t="shared" ref="C310:D339" ca="1" si="20">RANDBETWEEN(345000,624900)</f>
-        <v>571433</v>
+        <v>441851</v>
       </c>
       <c r="D310">
         <f t="shared" ca="1" si="20"/>
-        <v>391124</v>
+        <v>531465</v>
       </c>
       <c r="E310"/>
       <c r="F310"/>
@@ -17809,7 +17803,7 @@
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="20"/>
-        <v>581910</v>
+        <v>384192</v>
       </c>
       <c r="D311"/>
       <c r="E311"/>
@@ -17824,7 +17818,7 @@
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="20"/>
-        <v>426081</v>
+        <v>428407</v>
       </c>
       <c r="D312"/>
       <c r="E312"/>
@@ -17839,7 +17833,7 @@
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="20"/>
-        <v>524306</v>
+        <v>499348</v>
       </c>
       <c r="D313"/>
       <c r="E313"/>
@@ -17854,7 +17848,7 @@
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="20"/>
-        <v>535117</v>
+        <v>568363</v>
       </c>
       <c r="D314"/>
       <c r="E314"/>
@@ -17869,7 +17863,7 @@
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="20"/>
-        <v>401974</v>
+        <v>350303</v>
       </c>
       <c r="D315"/>
       <c r="E315"/>
@@ -17884,7 +17878,7 @@
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="20"/>
-        <v>473056</v>
+        <v>386008</v>
       </c>
       <c r="D316"/>
       <c r="E316"/>
@@ -17899,7 +17893,7 @@
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="20"/>
-        <v>472039</v>
+        <v>587978</v>
       </c>
       <c r="D317"/>
       <c r="E317"/>
@@ -17914,7 +17908,7 @@
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="20"/>
-        <v>594610</v>
+        <v>507868</v>
       </c>
       <c r="D318"/>
       <c r="E318"/>
@@ -17929,7 +17923,7 @@
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="20"/>
-        <v>474867</v>
+        <v>546116</v>
       </c>
       <c r="D319"/>
       <c r="E319"/>
@@ -17944,7 +17938,7 @@
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="20"/>
-        <v>346670</v>
+        <v>462228</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
@@ -17959,7 +17953,7 @@
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="20"/>
-        <v>611368</v>
+        <v>358141</v>
       </c>
       <c r="D321"/>
       <c r="E321"/>
@@ -17974,7 +17968,7 @@
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="20"/>
-        <v>535873</v>
+        <v>385187</v>
       </c>
       <c r="D322"/>
       <c r="E322"/>
@@ -17989,7 +17983,7 @@
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="20"/>
-        <v>493460</v>
+        <v>425024</v>
       </c>
       <c r="D323"/>
       <c r="E323"/>
@@ -18004,7 +17998,7 @@
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="20"/>
-        <v>381665</v>
+        <v>526939</v>
       </c>
       <c r="D324"/>
       <c r="E324"/>
@@ -18019,7 +18013,7 @@
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="20"/>
-        <v>585016</v>
+        <v>572928</v>
       </c>
       <c r="D325"/>
       <c r="E325"/>
@@ -18034,7 +18028,7 @@
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="20"/>
-        <v>371695</v>
+        <v>551019</v>
       </c>
       <c r="D326"/>
       <c r="E326"/>
@@ -18049,7 +18043,7 @@
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="20"/>
-        <v>568055</v>
+        <v>417213</v>
       </c>
       <c r="D327"/>
       <c r="E327"/>
@@ -18064,7 +18058,7 @@
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="20"/>
-        <v>470864</v>
+        <v>356074</v>
       </c>
       <c r="D328"/>
       <c r="E328"/>
@@ -18079,7 +18073,7 @@
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="20"/>
-        <v>563144</v>
+        <v>479848</v>
       </c>
       <c r="D329"/>
       <c r="E329"/>
@@ -18094,7 +18088,7 @@
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="20"/>
-        <v>544187</v>
+        <v>469572</v>
       </c>
       <c r="D330"/>
       <c r="E330"/>
@@ -18109,7 +18103,7 @@
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="20"/>
-        <v>431715</v>
+        <v>440195</v>
       </c>
       <c r="D331"/>
       <c r="E331"/>
@@ -18124,7 +18118,7 @@
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="20"/>
-        <v>433055</v>
+        <v>483093</v>
       </c>
       <c r="D332"/>
       <c r="E332"/>
@@ -18139,7 +18133,7 @@
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="20"/>
-        <v>469093</v>
+        <v>393243</v>
       </c>
       <c r="D333"/>
       <c r="E333"/>
@@ -18154,7 +18148,7 @@
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="20"/>
-        <v>548184</v>
+        <v>556734</v>
       </c>
       <c r="D334"/>
       <c r="E334"/>
@@ -18169,7 +18163,7 @@
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="20"/>
-        <v>599465</v>
+        <v>589400</v>
       </c>
       <c r="D335"/>
       <c r="E335"/>
@@ -18184,7 +18178,7 @@
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="20"/>
-        <v>386826</v>
+        <v>445473</v>
       </c>
       <c r="D336"/>
       <c r="E336"/>
@@ -18199,7 +18193,7 @@
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="20"/>
-        <v>365931</v>
+        <v>404601</v>
       </c>
       <c r="D337"/>
       <c r="E337"/>
@@ -18214,7 +18208,7 @@
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="20"/>
-        <v>497350</v>
+        <v>357712</v>
       </c>
       <c r="D338"/>
       <c r="E338"/>
@@ -18229,7 +18223,7 @@
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="20"/>
-        <v>473992</v>
+        <v>485773</v>
       </c>
       <c r="D339"/>
       <c r="E339"/>
@@ -18252,11 +18246,11 @@
       </c>
       <c r="C341">
         <f t="shared" ref="C341:D404" ca="1" si="21">RANDBETWEEN(345000,624900)</f>
-        <v>433708</v>
+        <v>597254</v>
       </c>
       <c r="D341">
         <f t="shared" ca="1" si="21"/>
-        <v>419125</v>
+        <v>472210</v>
       </c>
       <c r="E341"/>
       <c r="F341"/>
@@ -18270,7 +18264,7 @@
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="21"/>
-        <v>601008</v>
+        <v>411958</v>
       </c>
       <c r="D342"/>
       <c r="E342"/>
@@ -18285,7 +18279,7 @@
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="21"/>
-        <v>417496</v>
+        <v>501802</v>
       </c>
       <c r="D343"/>
       <c r="E343"/>
@@ -18300,7 +18294,7 @@
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="21"/>
-        <v>441207</v>
+        <v>510785</v>
       </c>
       <c r="D344"/>
       <c r="E344"/>
@@ -18315,7 +18309,7 @@
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="21"/>
-        <v>559298</v>
+        <v>601739</v>
       </c>
       <c r="D345"/>
       <c r="E345"/>
@@ -18330,7 +18324,7 @@
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="21"/>
-        <v>488894</v>
+        <v>478487</v>
       </c>
       <c r="D346"/>
       <c r="E346"/>
@@ -18345,7 +18339,7 @@
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="21"/>
-        <v>585741</v>
+        <v>352491</v>
       </c>
       <c r="D347"/>
       <c r="E347"/>
@@ -18360,7 +18354,7 @@
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="21"/>
-        <v>365367</v>
+        <v>481482</v>
       </c>
       <c r="D348"/>
       <c r="E348"/>
@@ -18375,7 +18369,7 @@
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="21"/>
-        <v>569341</v>
+        <v>439812</v>
       </c>
       <c r="D349"/>
       <c r="E349"/>
@@ -18390,7 +18384,7 @@
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="21"/>
-        <v>525118</v>
+        <v>356392</v>
       </c>
       <c r="D350"/>
       <c r="E350"/>
@@ -18405,7 +18399,7 @@
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="21"/>
-        <v>419175</v>
+        <v>572293</v>
       </c>
       <c r="D351"/>
       <c r="E351"/>
@@ -18420,7 +18414,7 @@
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="21"/>
-        <v>390935</v>
+        <v>502536</v>
       </c>
       <c r="D352"/>
       <c r="E352"/>
@@ -18435,7 +18429,7 @@
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="21"/>
-        <v>457992</v>
+        <v>607501</v>
       </c>
       <c r="D353"/>
       <c r="E353"/>
@@ -18450,7 +18444,7 @@
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="21"/>
-        <v>345079</v>
+        <v>409100</v>
       </c>
       <c r="D354"/>
       <c r="E354"/>
@@ -18465,7 +18459,7 @@
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="21"/>
-        <v>482889</v>
+        <v>553487</v>
       </c>
       <c r="D355"/>
       <c r="E355"/>
@@ -18480,7 +18474,7 @@
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="21"/>
-        <v>544054</v>
+        <v>488754</v>
       </c>
       <c r="D356"/>
       <c r="E356"/>
@@ -18495,7 +18489,7 @@
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="21"/>
-        <v>550114</v>
+        <v>592331</v>
       </c>
       <c r="D357"/>
       <c r="E357"/>
@@ -18510,7 +18504,7 @@
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="21"/>
-        <v>556651</v>
+        <v>543729</v>
       </c>
       <c r="D358"/>
       <c r="E358"/>
@@ -18525,7 +18519,7 @@
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="21"/>
-        <v>570500</v>
+        <v>451092</v>
       </c>
       <c r="D359"/>
       <c r="E359"/>
@@ -18540,7 +18534,7 @@
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="21"/>
-        <v>440111</v>
+        <v>563984</v>
       </c>
       <c r="D360"/>
       <c r="E360"/>
@@ -18555,7 +18549,7 @@
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="21"/>
-        <v>514369</v>
+        <v>480430</v>
       </c>
       <c r="D361"/>
       <c r="E361"/>
@@ -18570,7 +18564,7 @@
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="21"/>
-        <v>593224</v>
+        <v>487544</v>
       </c>
       <c r="D362"/>
       <c r="E362"/>
@@ -18585,7 +18579,7 @@
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="21"/>
-        <v>456213</v>
+        <v>538912</v>
       </c>
       <c r="D363"/>
       <c r="E363"/>
@@ -18600,7 +18594,7 @@
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="21"/>
-        <v>484293</v>
+        <v>420249</v>
       </c>
       <c r="D364"/>
       <c r="E364"/>
@@ -18615,7 +18609,7 @@
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="21"/>
-        <v>424943</v>
+        <v>616253</v>
       </c>
       <c r="D365"/>
       <c r="E365"/>
@@ -18630,7 +18624,7 @@
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="21"/>
-        <v>571083</v>
+        <v>564628</v>
       </c>
       <c r="D366"/>
       <c r="E366"/>
@@ -18645,7 +18639,7 @@
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="21"/>
-        <v>616063</v>
+        <v>510045</v>
       </c>
       <c r="D367"/>
       <c r="E367"/>
@@ -18660,7 +18654,7 @@
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="21"/>
-        <v>495819</v>
+        <v>539271</v>
       </c>
       <c r="D368"/>
       <c r="E368"/>
@@ -18675,7 +18669,7 @@
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="21"/>
-        <v>501501</v>
+        <v>389518</v>
       </c>
       <c r="D369"/>
       <c r="E369"/>
@@ -18690,7 +18684,7 @@
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="21"/>
-        <v>368313</v>
+        <v>417378</v>
       </c>
       <c r="D370"/>
       <c r="E370"/>
@@ -18713,11 +18707,11 @@
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="21"/>
-        <v>482827</v>
+        <v>408344</v>
       </c>
       <c r="D372">
         <f t="shared" ca="1" si="21"/>
-        <v>590612</v>
+        <v>576615</v>
       </c>
       <c r="E372"/>
       <c r="F372"/>
@@ -18731,7 +18725,7 @@
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="21"/>
-        <v>548196</v>
+        <v>440341</v>
       </c>
       <c r="D373"/>
       <c r="E373"/>
@@ -18746,7 +18740,7 @@
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="21"/>
-        <v>472512</v>
+        <v>358902</v>
       </c>
       <c r="G374" s="36"/>
     </row>
@@ -18759,7 +18753,7 @@
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="21"/>
-        <v>522728</v>
+        <v>404874</v>
       </c>
       <c r="G375" s="36"/>
     </row>
@@ -18772,7 +18766,7 @@
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="21"/>
-        <v>436719</v>
+        <v>472165</v>
       </c>
       <c r="G376" s="36"/>
     </row>
@@ -18785,7 +18779,7 @@
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="21"/>
-        <v>594273</v>
+        <v>547745</v>
       </c>
       <c r="G377" s="36"/>
     </row>
@@ -18798,7 +18792,7 @@
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="21"/>
-        <v>593146</v>
+        <v>422134</v>
       </c>
       <c r="G378" s="36"/>
     </row>
@@ -18811,7 +18805,7 @@
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="21"/>
-        <v>468669</v>
+        <v>478163</v>
       </c>
       <c r="G379" s="36"/>
     </row>
@@ -18824,7 +18818,7 @@
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="21"/>
-        <v>387483</v>
+        <v>461967</v>
       </c>
       <c r="G380" s="36"/>
     </row>
@@ -18837,7 +18831,7 @@
       </c>
       <c r="C381">
         <f t="shared" ca="1" si="21"/>
-        <v>541394</v>
+        <v>453691</v>
       </c>
       <c r="G381" s="36"/>
     </row>
@@ -18850,7 +18844,7 @@
       </c>
       <c r="C382">
         <f t="shared" ca="1" si="21"/>
-        <v>403777</v>
+        <v>501718</v>
       </c>
       <c r="G382" s="36"/>
     </row>
@@ -18863,7 +18857,7 @@
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="21"/>
-        <v>571901</v>
+        <v>530772</v>
       </c>
       <c r="G383" s="36"/>
     </row>
@@ -18876,7 +18870,7 @@
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="21"/>
-        <v>611370</v>
+        <v>498957</v>
       </c>
       <c r="G384" s="36"/>
     </row>
@@ -18889,7 +18883,7 @@
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="21"/>
-        <v>516117</v>
+        <v>382716</v>
       </c>
       <c r="G385" s="36"/>
     </row>
@@ -18902,7 +18896,7 @@
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="21"/>
-        <v>370670</v>
+        <v>411962</v>
       </c>
       <c r="G386" s="36"/>
     </row>
@@ -18915,7 +18909,7 @@
       </c>
       <c r="C387" s="36">
         <f t="shared" ca="1" si="21"/>
-        <v>607787</v>
+        <v>518867</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -18927,7 +18921,7 @@
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="21"/>
-        <v>406273</v>
+        <v>445387</v>
       </c>
       <c r="G388" s="36"/>
     </row>
@@ -18940,7 +18934,7 @@
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="21"/>
-        <v>541017</v>
+        <v>383350</v>
       </c>
       <c r="G389" s="36"/>
     </row>
@@ -18953,7 +18947,7 @@
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="21"/>
-        <v>556766</v>
+        <v>415096</v>
       </c>
       <c r="G390" s="36"/>
     </row>
@@ -18966,7 +18960,7 @@
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="21"/>
-        <v>470116</v>
+        <v>595436</v>
       </c>
       <c r="G391" s="36"/>
     </row>
@@ -18979,7 +18973,7 @@
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="21"/>
-        <v>455914</v>
+        <v>622547</v>
       </c>
       <c r="G392" s="36"/>
     </row>
@@ -18992,7 +18986,7 @@
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="21"/>
-        <v>604887</v>
+        <v>507658</v>
       </c>
       <c r="G393" s="36"/>
     </row>
@@ -19005,7 +18999,7 @@
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="21"/>
-        <v>532679</v>
+        <v>415223</v>
       </c>
       <c r="G394" s="36"/>
     </row>
@@ -19018,7 +19012,7 @@
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="21"/>
-        <v>553972</v>
+        <v>401209</v>
       </c>
       <c r="G395" s="36"/>
     </row>
@@ -19031,7 +19025,7 @@
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="21"/>
-        <v>619448</v>
+        <v>600509</v>
       </c>
       <c r="G396" s="36"/>
     </row>
@@ -19044,7 +19038,7 @@
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="21"/>
-        <v>417687</v>
+        <v>386284</v>
       </c>
       <c r="G397" s="36"/>
     </row>
@@ -19057,7 +19051,7 @@
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="21"/>
-        <v>474821</v>
+        <v>455969</v>
       </c>
       <c r="G398" s="36"/>
     </row>
@@ -19070,7 +19064,7 @@
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="21"/>
-        <v>491493</v>
+        <v>350774</v>
       </c>
       <c r="G399" s="36"/>
     </row>
@@ -19083,7 +19077,7 @@
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="21"/>
-        <v>570651</v>
+        <v>536669</v>
       </c>
       <c r="G400" s="36"/>
     </row>
@@ -19096,7 +19090,7 @@
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="21"/>
-        <v>455383</v>
+        <v>433769</v>
       </c>
       <c r="G401" s="36"/>
     </row>
@@ -19112,11 +19106,11 @@
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="21"/>
-        <v>405080</v>
+        <v>435509</v>
       </c>
       <c r="D403">
         <f t="shared" ca="1" si="21"/>
-        <v>488085</v>
+        <v>587759</v>
       </c>
       <c r="G403" s="36"/>
     </row>
@@ -19129,7 +19123,7 @@
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="21"/>
-        <v>524816</v>
+        <v>569027</v>
       </c>
       <c r="G404" s="36"/>
     </row>
@@ -19142,7 +19136,7 @@
       </c>
       <c r="C405">
         <f t="shared" ref="C405:C432" ca="1" si="22">RANDBETWEEN(345000,624900)</f>
-        <v>554599</v>
+        <v>449244</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -19154,7 +19148,7 @@
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="22"/>
-        <v>550968</v>
+        <v>548434</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -19166,7 +19160,7 @@
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="22"/>
-        <v>495006</v>
+        <v>591059</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -19178,7 +19172,7 @@
       </c>
       <c r="C408">
         <f t="shared" ca="1" si="22"/>
-        <v>412123</v>
+        <v>612198</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -19190,7 +19184,7 @@
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="22"/>
-        <v>403307</v>
+        <v>354134</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -19202,7 +19196,7 @@
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="22"/>
-        <v>458620</v>
+        <v>470863</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -19214,7 +19208,7 @@
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="22"/>
-        <v>556326</v>
+        <v>465373</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -19226,7 +19220,7 @@
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="22"/>
-        <v>483339</v>
+        <v>417186</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -19238,7 +19232,7 @@
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="22"/>
-        <v>620884</v>
+        <v>564371</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -19250,7 +19244,7 @@
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="22"/>
-        <v>525801</v>
+        <v>566088</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -19262,7 +19256,7 @@
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="22"/>
-        <v>616485</v>
+        <v>535429</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -19274,7 +19268,7 @@
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="22"/>
-        <v>441309</v>
+        <v>545016</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -19286,7 +19280,7 @@
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="22"/>
-        <v>521272</v>
+        <v>347238</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -19298,7 +19292,7 @@
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="22"/>
-        <v>523775</v>
+        <v>538500</v>
       </c>
       <c r="G418" s="36"/>
     </row>
@@ -19311,7 +19305,7 @@
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="22"/>
-        <v>563128</v>
+        <v>578110</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -19323,7 +19317,7 @@
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="22"/>
-        <v>433307</v>
+        <v>441727</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -19335,7 +19329,7 @@
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="22"/>
-        <v>367945</v>
+        <v>535387</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -19347,7 +19341,7 @@
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="22"/>
-        <v>593874</v>
+        <v>579048</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -19359,7 +19353,7 @@
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="22"/>
-        <v>518302</v>
+        <v>468184</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -19371,7 +19365,7 @@
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="22"/>
-        <v>378066</v>
+        <v>416529</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -19383,7 +19377,7 @@
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="22"/>
-        <v>411384</v>
+        <v>483390</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -19395,7 +19389,7 @@
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="22"/>
-        <v>499600</v>
+        <v>530704</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -19407,7 +19401,7 @@
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="22"/>
-        <v>615458</v>
+        <v>623805</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -19419,7 +19413,7 @@
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="22"/>
-        <v>474580</v>
+        <v>356919</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -19431,7 +19425,7 @@
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="22"/>
-        <v>592776</v>
+        <v>482297</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -19443,7 +19437,7 @@
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="22"/>
-        <v>541206</v>
+        <v>426723</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -19455,7 +19449,7 @@
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="22"/>
-        <v>526453</v>
+        <v>443075</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -19467,7 +19461,7 @@
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="22"/>
-        <v>623380</v>
+        <v>464286</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -19479,11 +19473,11 @@
       </c>
       <c r="C434">
         <f t="shared" ref="C434:D463" ca="1" si="23">RANDBETWEEN(345000,624900)</f>
-        <v>548938</v>
+        <v>415273</v>
       </c>
       <c r="D434">
         <f t="shared" ca="1" si="23"/>
-        <v>493690</v>
+        <v>465923</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -19495,7 +19489,7 @@
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="23"/>
-        <v>407849</v>
+        <v>470026</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -19507,7 +19501,7 @@
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="23"/>
-        <v>438538</v>
+        <v>509093</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -19519,7 +19513,7 @@
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="23"/>
-        <v>542850</v>
+        <v>404246</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -19531,7 +19525,7 @@
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="23"/>
-        <v>594391</v>
+        <v>562778</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -19543,7 +19537,7 @@
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="23"/>
-        <v>541127</v>
+        <v>466255</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -19555,7 +19549,7 @@
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="23"/>
-        <v>598922</v>
+        <v>558937</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -19567,7 +19561,7 @@
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="23"/>
-        <v>535898</v>
+        <v>356646</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -19579,7 +19573,7 @@
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="23"/>
-        <v>349910</v>
+        <v>556933</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -19591,7 +19585,7 @@
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="23"/>
-        <v>446276</v>
+        <v>515695</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -19603,7 +19597,7 @@
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="23"/>
-        <v>385135</v>
+        <v>354766</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -19615,7 +19609,7 @@
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="23"/>
-        <v>448693</v>
+        <v>514946</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -19627,7 +19621,7 @@
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="23"/>
-        <v>393320</v>
+        <v>498594</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -19639,7 +19633,7 @@
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="23"/>
-        <v>346275</v>
+        <v>470320</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -19651,7 +19645,7 @@
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="23"/>
-        <v>614671</v>
+        <v>386562</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -19663,7 +19657,7 @@
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="23"/>
-        <v>609654</v>
+        <v>558622</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -19675,7 +19669,7 @@
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="23"/>
-        <v>367006</v>
+        <v>435669</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -19687,7 +19681,7 @@
       </c>
       <c r="C451">
         <f t="shared" ca="1" si="23"/>
-        <v>364868</v>
+        <v>595088</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -19699,7 +19693,7 @@
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="23"/>
-        <v>499151</v>
+        <v>427568</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -19711,7 +19705,7 @@
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="23"/>
-        <v>501440</v>
+        <v>446491</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -19723,7 +19717,7 @@
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="23"/>
-        <v>376041</v>
+        <v>574135</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -19735,7 +19729,7 @@
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="23"/>
-        <v>443849</v>
+        <v>376106</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -19747,7 +19741,7 @@
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="23"/>
-        <v>579607</v>
+        <v>383312</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -19759,7 +19753,7 @@
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="23"/>
-        <v>552998</v>
+        <v>479422</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -19771,7 +19765,7 @@
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="23"/>
-        <v>477006</v>
+        <v>427657</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -19783,7 +19777,7 @@
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="23"/>
-        <v>481965</v>
+        <v>521761</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -19795,7 +19789,7 @@
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="23"/>
-        <v>530548</v>
+        <v>375909</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -19807,7 +19801,7 @@
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="23"/>
-        <v>474329</v>
+        <v>586080</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -19819,7 +19813,7 @@
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="23"/>
-        <v>532792</v>
+        <v>365083</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -19831,7 +19825,7 @@
       </c>
       <c r="C463">
         <f t="shared" ca="1" si="23"/>
-        <v>373882</v>
+        <v>495945</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -19843,11 +19837,11 @@
       </c>
       <c r="C465">
         <f t="shared" ref="C465:D525" ca="1" si="24">RANDBETWEEN(345000,624900)</f>
-        <v>551819</v>
+        <v>347389</v>
       </c>
       <c r="D465">
         <f t="shared" ca="1" si="24"/>
-        <v>505808</v>
+        <v>612861</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -19859,7 +19853,7 @@
       </c>
       <c r="C466">
         <f t="shared" ca="1" si="24"/>
-        <v>601125</v>
+        <v>417944</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -19871,7 +19865,7 @@
       </c>
       <c r="C467">
         <f t="shared" ca="1" si="24"/>
-        <v>575023</v>
+        <v>484078</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -19883,7 +19877,7 @@
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="24"/>
-        <v>594306</v>
+        <v>407133</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -19895,7 +19889,7 @@
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="24"/>
-        <v>409310</v>
+        <v>577987</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -19907,7 +19901,7 @@
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="24"/>
-        <v>436749</v>
+        <v>487318</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -19919,7 +19913,7 @@
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="24"/>
-        <v>488363</v>
+        <v>432211</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -19931,7 +19925,7 @@
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="24"/>
-        <v>392951</v>
+        <v>623982</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -19943,7 +19937,7 @@
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="24"/>
-        <v>600845</v>
+        <v>345589</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -19955,7 +19949,7 @@
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="24"/>
-        <v>364496</v>
+        <v>474881</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -19967,7 +19961,7 @@
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="24"/>
-        <v>440085</v>
+        <v>452757</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -19979,7 +19973,7 @@
       </c>
       <c r="C476">
         <f t="shared" ca="1" si="24"/>
-        <v>534957</v>
+        <v>568232</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -19991,7 +19985,7 @@
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="24"/>
-        <v>373758</v>
+        <v>419540</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -20003,7 +19997,7 @@
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="24"/>
-        <v>612497</v>
+        <v>458639</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -20015,7 +20009,7 @@
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="24"/>
-        <v>369007</v>
+        <v>359652</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -20027,7 +20021,7 @@
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="24"/>
-        <v>509498</v>
+        <v>388579</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -20039,7 +20033,7 @@
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="24"/>
-        <v>501557</v>
+        <v>467102</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -20051,7 +20045,7 @@
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="24"/>
-        <v>415827</v>
+        <v>565682</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -20063,7 +20057,7 @@
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="24"/>
-        <v>385940</v>
+        <v>388409</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -20075,7 +20069,7 @@
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="24"/>
-        <v>345405</v>
+        <v>601988</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -20087,7 +20081,7 @@
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="24"/>
-        <v>521383</v>
+        <v>428527</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -20099,7 +20093,7 @@
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="24"/>
-        <v>379521</v>
+        <v>370496</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -20111,7 +20105,7 @@
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="24"/>
-        <v>393043</v>
+        <v>418154</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -20123,7 +20117,7 @@
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="24"/>
-        <v>389538</v>
+        <v>434440</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -20135,7 +20129,7 @@
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="24"/>
-        <v>470815</v>
+        <v>495313</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -20147,7 +20141,7 @@
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="24"/>
-        <v>527911</v>
+        <v>618307</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -20159,7 +20153,7 @@
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="24"/>
-        <v>411596</v>
+        <v>483139</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -20171,7 +20165,7 @@
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="24"/>
-        <v>443361</v>
+        <v>358800</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -20183,7 +20177,7 @@
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="24"/>
-        <v>525492</v>
+        <v>563604</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -20195,7 +20189,7 @@
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="24"/>
-        <v>468514</v>
+        <v>419195</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -20207,11 +20201,11 @@
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="24"/>
-        <v>452474</v>
+        <v>557184</v>
       </c>
       <c r="D496">
         <f t="shared" ca="1" si="24"/>
-        <v>540459</v>
+        <v>412221</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -20223,7 +20217,7 @@
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="24"/>
-        <v>416265</v>
+        <v>487146</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -20235,7 +20229,7 @@
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="24"/>
-        <v>448368</v>
+        <v>447713</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20247,7 +20241,7 @@
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="24"/>
-        <v>421437</v>
+        <v>356080</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -20259,7 +20253,7 @@
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="24"/>
-        <v>593741</v>
+        <v>494148</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -20271,7 +20265,7 @@
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="24"/>
-        <v>449470</v>
+        <v>456816</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -20283,7 +20277,7 @@
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="24"/>
-        <v>427361</v>
+        <v>442173</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -20295,7 +20289,7 @@
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="24"/>
-        <v>486917</v>
+        <v>523062</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -20307,7 +20301,7 @@
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="24"/>
-        <v>554832</v>
+        <v>553677</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -20319,7 +20313,7 @@
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="24"/>
-        <v>438259</v>
+        <v>540666</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -20331,7 +20325,7 @@
       </c>
       <c r="C506">
         <f t="shared" ca="1" si="24"/>
-        <v>439716</v>
+        <v>399366</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -20343,7 +20337,7 @@
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="24"/>
-        <v>606236</v>
+        <v>534405</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -20355,7 +20349,7 @@
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="24"/>
-        <v>475520</v>
+        <v>550885</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -20367,7 +20361,7 @@
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="24"/>
-        <v>577139</v>
+        <v>614620</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -20379,7 +20373,7 @@
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="24"/>
-        <v>583256</v>
+        <v>446117</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -20391,7 +20385,7 @@
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="24"/>
-        <v>548180</v>
+        <v>424419</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -20403,7 +20397,7 @@
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="24"/>
-        <v>451564</v>
+        <v>607351</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -20415,7 +20409,7 @@
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="24"/>
-        <v>426012</v>
+        <v>519063</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -20427,7 +20421,7 @@
       </c>
       <c r="C514">
         <f t="shared" ca="1" si="24"/>
-        <v>436349</v>
+        <v>347700</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -20439,7 +20433,7 @@
       </c>
       <c r="C515">
         <f t="shared" ca="1" si="24"/>
-        <v>554430</v>
+        <v>530229</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -20451,7 +20445,7 @@
       </c>
       <c r="C516">
         <f t="shared" ca="1" si="24"/>
-        <v>565315</v>
+        <v>586154</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -20463,7 +20457,7 @@
       </c>
       <c r="C517">
         <f t="shared" ca="1" si="24"/>
-        <v>538657</v>
+        <v>606251</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -20475,7 +20469,7 @@
       </c>
       <c r="C518">
         <f t="shared" ca="1" si="24"/>
-        <v>493946</v>
+        <v>447555</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -20487,7 +20481,7 @@
       </c>
       <c r="C519">
         <f t="shared" ca="1" si="24"/>
-        <v>555582</v>
+        <v>372067</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -20499,7 +20493,7 @@
       </c>
       <c r="C520">
         <f t="shared" ca="1" si="24"/>
-        <v>446979</v>
+        <v>374649</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -20511,7 +20505,7 @@
       </c>
       <c r="C521">
         <f t="shared" ca="1" si="24"/>
-        <v>549093</v>
+        <v>357585</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -20523,7 +20517,7 @@
       </c>
       <c r="C522">
         <f t="shared" ca="1" si="24"/>
-        <v>513261</v>
+        <v>369639</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -20535,7 +20529,7 @@
       </c>
       <c r="C523">
         <f t="shared" ca="1" si="24"/>
-        <v>590076</v>
+        <v>368712</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -20547,7 +20541,7 @@
       </c>
       <c r="C524">
         <f t="shared" ca="1" si="24"/>
-        <v>472513</v>
+        <v>457680</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -20559,7 +20553,7 @@
       </c>
       <c r="C525">
         <f t="shared" ca="1" si="24"/>
-        <v>434159</v>
+        <v>543106</v>
       </c>
     </row>
     <row r="527" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -20576,7 +20570,7 @@
       </c>
       <c r="D528">
         <f t="shared" ref="D528:D548" ca="1" si="25">RANDBETWEEN(345000,624900)</f>
-        <v>469340</v>
+        <v>395166</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -20588,7 +20582,7 @@
       </c>
       <c r="D529">
         <f t="shared" ca="1" si="25"/>
-        <v>453628</v>
+        <v>496571</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -20600,7 +20594,7 @@
       </c>
       <c r="D530">
         <f t="shared" ca="1" si="25"/>
-        <v>368279</v>
+        <v>550127</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -20612,7 +20606,7 @@
       </c>
       <c r="D531">
         <f t="shared" ca="1" si="25"/>
-        <v>540564</v>
+        <v>550371</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -20624,7 +20618,7 @@
       </c>
       <c r="D532">
         <f t="shared" ca="1" si="25"/>
-        <v>562842</v>
+        <v>365779</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -20636,7 +20630,7 @@
       </c>
       <c r="D533">
         <f t="shared" ca="1" si="25"/>
-        <v>473580</v>
+        <v>372967</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -20648,7 +20642,7 @@
       </c>
       <c r="D534">
         <f t="shared" ca="1" si="25"/>
-        <v>463212</v>
+        <v>441234</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -20660,7 +20654,7 @@
       </c>
       <c r="D535">
         <f t="shared" ca="1" si="25"/>
-        <v>596686</v>
+        <v>484071</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -20672,7 +20666,7 @@
       </c>
       <c r="D536">
         <f t="shared" ca="1" si="25"/>
-        <v>577710</v>
+        <v>571628</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -20684,7 +20678,7 @@
       </c>
       <c r="D537">
         <f t="shared" ca="1" si="25"/>
-        <v>428957</v>
+        <v>435235</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -20696,7 +20690,7 @@
       </c>
       <c r="D539">
         <f t="shared" ca="1" si="25"/>
-        <v>527743</v>
+        <v>390537</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -20708,7 +20702,7 @@
       </c>
       <c r="D540">
         <f t="shared" ca="1" si="25"/>
-        <v>441878</v>
+        <v>379389</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -20720,7 +20714,7 @@
       </c>
       <c r="D541">
         <f t="shared" ca="1" si="25"/>
-        <v>591384</v>
+        <v>497555</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -20732,7 +20726,7 @@
       </c>
       <c r="D542">
         <f t="shared" ca="1" si="25"/>
-        <v>431125</v>
+        <v>475787</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -20744,7 +20738,7 @@
       </c>
       <c r="D543">
         <f t="shared" ca="1" si="25"/>
-        <v>353578</v>
+        <v>353937</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -20756,7 +20750,7 @@
       </c>
       <c r="D544">
         <f t="shared" ca="1" si="25"/>
-        <v>560921</v>
+        <v>382973</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -20768,7 +20762,7 @@
       </c>
       <c r="D545">
         <f t="shared" ca="1" si="25"/>
-        <v>575202</v>
+        <v>488583</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -20780,7 +20774,7 @@
       </c>
       <c r="D546">
         <f t="shared" ca="1" si="25"/>
-        <v>392981</v>
+        <v>438187</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -20792,7 +20786,7 @@
       </c>
       <c r="D547">
         <f t="shared" ca="1" si="25"/>
-        <v>565986</v>
+        <v>393999</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -20804,7 +20798,7 @@
       </c>
       <c r="D548">
         <f t="shared" ca="1" si="25"/>
-        <v>419251</v>
+        <v>565963</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -20816,7 +20810,7 @@
       </c>
       <c r="D550">
         <f t="shared" ref="D550:D559" ca="1" si="26">RANDBETWEEN(345000,624900)</f>
-        <v>366473</v>
+        <v>378838</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -20828,7 +20822,7 @@
       </c>
       <c r="D551">
         <f t="shared" ca="1" si="26"/>
-        <v>593328</v>
+        <v>622523</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -20840,7 +20834,7 @@
       </c>
       <c r="D552">
         <f t="shared" ca="1" si="26"/>
-        <v>411923</v>
+        <v>462323</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -20852,7 +20846,7 @@
       </c>
       <c r="D553">
         <f t="shared" ca="1" si="26"/>
-        <v>529160</v>
+        <v>564370</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -20864,7 +20858,7 @@
       </c>
       <c r="D554">
         <f t="shared" ca="1" si="26"/>
-        <v>399759</v>
+        <v>548780</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -20876,7 +20870,7 @@
       </c>
       <c r="D555">
         <f t="shared" ca="1" si="26"/>
-        <v>607352</v>
+        <v>597294</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -20888,7 +20882,7 @@
       </c>
       <c r="D556">
         <f t="shared" ca="1" si="26"/>
-        <v>359564</v>
+        <v>491771</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -20900,7 +20894,7 @@
       </c>
       <c r="D557">
         <f t="shared" ca="1" si="26"/>
-        <v>516149</v>
+        <v>524941</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -20912,7 +20906,7 @@
       </c>
       <c r="D558">
         <f t="shared" ca="1" si="26"/>
-        <v>403645</v>
+        <v>598471</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -20924,7 +20918,7 @@
       </c>
       <c r="D559">
         <f t="shared" ca="1" si="26"/>
-        <v>549573</v>
+        <v>575715</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -20936,7 +20930,7 @@
       </c>
       <c r="D561">
         <f t="shared" ref="D561:D570" ca="1" si="27">RANDBETWEEN(345000,624900)</f>
-        <v>590241</v>
+        <v>451385</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -20948,7 +20942,7 @@
       </c>
       <c r="D562">
         <f t="shared" ca="1" si="27"/>
-        <v>527535</v>
+        <v>617628</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -20960,7 +20954,7 @@
       </c>
       <c r="D563">
         <f t="shared" ca="1" si="27"/>
-        <v>485526</v>
+        <v>555467</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -20972,7 +20966,7 @@
       </c>
       <c r="D564">
         <f t="shared" ca="1" si="27"/>
-        <v>459587</v>
+        <v>497026</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -20984,7 +20978,7 @@
       </c>
       <c r="D565">
         <f t="shared" ca="1" si="27"/>
-        <v>420090</v>
+        <v>453692</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -20996,7 +20990,7 @@
       </c>
       <c r="D566">
         <f t="shared" ca="1" si="27"/>
-        <v>488679</v>
+        <v>457875</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -21008,7 +21002,7 @@
       </c>
       <c r="D567">
         <f t="shared" ca="1" si="27"/>
-        <v>406697</v>
+        <v>350881</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -21020,7 +21014,7 @@
       </c>
       <c r="D568">
         <f t="shared" ca="1" si="27"/>
-        <v>450898</v>
+        <v>393346</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -21032,7 +21026,7 @@
       </c>
       <c r="D569">
         <f t="shared" ca="1" si="27"/>
-        <v>363069</v>
+        <v>487738</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -21044,7 +21038,7 @@
       </c>
       <c r="D570">
         <f t="shared" ca="1" si="27"/>
-        <v>358848</v>
+        <v>464342</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -21056,7 +21050,7 @@
       </c>
       <c r="D572">
         <f t="shared" ref="D572:D581" ca="1" si="28">RANDBETWEEN(345000,624900)</f>
-        <v>518795</v>
+        <v>481083</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -21068,7 +21062,7 @@
       </c>
       <c r="D573">
         <f t="shared" ca="1" si="28"/>
-        <v>351146</v>
+        <v>554688</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -21080,7 +21074,7 @@
       </c>
       <c r="D574">
         <f t="shared" ca="1" si="28"/>
-        <v>430590</v>
+        <v>419776</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -21092,7 +21086,7 @@
       </c>
       <c r="D575">
         <f t="shared" ca="1" si="28"/>
-        <v>352320</v>
+        <v>545372</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -21104,7 +21098,7 @@
       </c>
       <c r="D576">
         <f t="shared" ca="1" si="28"/>
-        <v>500176</v>
+        <v>471169</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -21116,7 +21110,7 @@
       </c>
       <c r="D577">
         <f t="shared" ca="1" si="28"/>
-        <v>585930</v>
+        <v>434500</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -21128,7 +21122,7 @@
       </c>
       <c r="D578">
         <f t="shared" ca="1" si="28"/>
-        <v>376821</v>
+        <v>516228</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -21140,7 +21134,7 @@
       </c>
       <c r="D579">
         <f t="shared" ca="1" si="28"/>
-        <v>587082</v>
+        <v>506079</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -21152,7 +21146,7 @@
       </c>
       <c r="D580">
         <f t="shared" ca="1" si="28"/>
-        <v>428431</v>
+        <v>377374</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -21164,7 +21158,7 @@
       </c>
       <c r="D581">
         <f t="shared" ca="1" si="28"/>
-        <v>450890</v>
+        <v>429665</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -21176,7 +21170,7 @@
       </c>
       <c r="D583">
         <f t="shared" ref="D583:D592" ca="1" si="29">RANDBETWEEN(345000,624900)</f>
-        <v>426116</v>
+        <v>474986</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -21188,7 +21182,7 @@
       </c>
       <c r="D584">
         <f t="shared" ca="1" si="29"/>
-        <v>435476</v>
+        <v>436589</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -21200,7 +21194,7 @@
       </c>
       <c r="D585">
         <f t="shared" ca="1" si="29"/>
-        <v>423089</v>
+        <v>426128</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -21212,7 +21206,7 @@
       </c>
       <c r="D586">
         <f t="shared" ca="1" si="29"/>
-        <v>586566</v>
+        <v>504019</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -21224,7 +21218,7 @@
       </c>
       <c r="D587">
         <f t="shared" ca="1" si="29"/>
-        <v>382010</v>
+        <v>530330</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -21236,7 +21230,7 @@
       </c>
       <c r="D588">
         <f t="shared" ca="1" si="29"/>
-        <v>534187</v>
+        <v>598329</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -21248,7 +21242,7 @@
       </c>
       <c r="D589">
         <f t="shared" ca="1" si="29"/>
-        <v>519130</v>
+        <v>419422</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -21260,7 +21254,7 @@
       </c>
       <c r="D590">
         <f t="shared" ca="1" si="29"/>
-        <v>396386</v>
+        <v>400139</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -21272,7 +21266,7 @@
       </c>
       <c r="D591">
         <f t="shared" ca="1" si="29"/>
-        <v>615796</v>
+        <v>451768</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -21284,7 +21278,7 @@
       </c>
       <c r="D592">
         <f t="shared" ca="1" si="29"/>
-        <v>447348</v>
+        <v>477206</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -21296,7 +21290,7 @@
       </c>
       <c r="D594">
         <f t="shared" ref="D594:D603" ca="1" si="30">RANDBETWEEN(345000,624900)</f>
-        <v>623794</v>
+        <v>391494</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -21308,7 +21302,7 @@
       </c>
       <c r="D595">
         <f t="shared" ca="1" si="30"/>
-        <v>452955</v>
+        <v>520247</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -21320,7 +21314,7 @@
       </c>
       <c r="D596">
         <f t="shared" ca="1" si="30"/>
-        <v>584169</v>
+        <v>560386</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -21332,7 +21326,7 @@
       </c>
       <c r="D597">
         <f t="shared" ca="1" si="30"/>
-        <v>536622</v>
+        <v>388822</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -21344,7 +21338,7 @@
       </c>
       <c r="D598">
         <f t="shared" ca="1" si="30"/>
-        <v>561780</v>
+        <v>613734</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -21356,7 +21350,7 @@
       </c>
       <c r="D599">
         <f t="shared" ca="1" si="30"/>
-        <v>386962</v>
+        <v>528074</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -21368,7 +21362,7 @@
       </c>
       <c r="D600">
         <f t="shared" ca="1" si="30"/>
-        <v>367459</v>
+        <v>587783</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -21380,7 +21374,7 @@
       </c>
       <c r="D601">
         <f t="shared" ca="1" si="30"/>
-        <v>374122</v>
+        <v>605751</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -21392,7 +21386,7 @@
       </c>
       <c r="D602">
         <f t="shared" ca="1" si="30"/>
-        <v>575011</v>
+        <v>383023</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -21404,7 +21398,7 @@
       </c>
       <c r="D603">
         <f t="shared" ca="1" si="30"/>
-        <v>599607</v>
+        <v>569288</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -21416,11 +21410,11 @@
       </c>
       <c r="C606">
         <f t="shared" ref="C606:D669" ca="1" si="31">RANDBETWEEN(345000,624900)</f>
-        <v>418579</v>
+        <v>386541</v>
       </c>
       <c r="D606">
         <f t="shared" ca="1" si="31"/>
-        <v>463877</v>
+        <v>613096</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -21432,7 +21426,7 @@
       </c>
       <c r="C607">
         <f t="shared" ca="1" si="31"/>
-        <v>382335</v>
+        <v>505038</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -21444,7 +21438,7 @@
       </c>
       <c r="C608">
         <f t="shared" ca="1" si="31"/>
-        <v>585787</v>
+        <v>415168</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -21456,7 +21450,7 @@
       </c>
       <c r="C609">
         <f t="shared" ca="1" si="31"/>
-        <v>557968</v>
+        <v>353673</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -21468,7 +21462,7 @@
       </c>
       <c r="C610">
         <f t="shared" ca="1" si="31"/>
-        <v>355845</v>
+        <v>462029</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -21480,7 +21474,7 @@
       </c>
       <c r="C611">
         <f t="shared" ca="1" si="31"/>
-        <v>355495</v>
+        <v>501813</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -21492,7 +21486,7 @@
       </c>
       <c r="C612">
         <f t="shared" ca="1" si="31"/>
-        <v>381736</v>
+        <v>588931</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -21504,7 +21498,7 @@
       </c>
       <c r="C613">
         <f t="shared" ca="1" si="31"/>
-        <v>395288</v>
+        <v>614834</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -21516,7 +21510,7 @@
       </c>
       <c r="C614">
         <f t="shared" ca="1" si="31"/>
-        <v>377262</v>
+        <v>441324</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -21528,7 +21522,7 @@
       </c>
       <c r="C615">
         <f t="shared" ca="1" si="31"/>
-        <v>582499</v>
+        <v>623455</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -21540,7 +21534,7 @@
       </c>
       <c r="C616">
         <f t="shared" ca="1" si="31"/>
-        <v>593323</v>
+        <v>440148</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -21552,7 +21546,7 @@
       </c>
       <c r="C617">
         <f t="shared" ca="1" si="31"/>
-        <v>454826</v>
+        <v>472828</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -21564,7 +21558,7 @@
       </c>
       <c r="C618">
         <f t="shared" ca="1" si="31"/>
-        <v>444771</v>
+        <v>592657</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -21576,7 +21570,7 @@
       </c>
       <c r="C619">
         <f t="shared" ca="1" si="31"/>
-        <v>408534</v>
+        <v>558445</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -21588,7 +21582,7 @@
       </c>
       <c r="C620">
         <f t="shared" ca="1" si="31"/>
-        <v>600982</v>
+        <v>565187</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -21600,7 +21594,7 @@
       </c>
       <c r="C621">
         <f t="shared" ca="1" si="31"/>
-        <v>397028</v>
+        <v>496246</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -21612,7 +21606,7 @@
       </c>
       <c r="C622">
         <f t="shared" ca="1" si="31"/>
-        <v>442438</v>
+        <v>504541</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -21624,7 +21618,7 @@
       </c>
       <c r="C623">
         <f t="shared" ca="1" si="31"/>
-        <v>587608</v>
+        <v>469915</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -21636,7 +21630,7 @@
       </c>
       <c r="C624">
         <f t="shared" ca="1" si="31"/>
-        <v>475789</v>
+        <v>378450</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -21648,7 +21642,7 @@
       </c>
       <c r="C625">
         <f t="shared" ca="1" si="31"/>
-        <v>380923</v>
+        <v>529971</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -21660,7 +21654,7 @@
       </c>
       <c r="C626">
         <f t="shared" ca="1" si="31"/>
-        <v>540866</v>
+        <v>414434</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -21672,7 +21666,7 @@
       </c>
       <c r="C627">
         <f t="shared" ca="1" si="31"/>
-        <v>405501</v>
+        <v>547804</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -21684,7 +21678,7 @@
       </c>
       <c r="C628">
         <f t="shared" ca="1" si="31"/>
-        <v>524441</v>
+        <v>529476</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -21696,7 +21690,7 @@
       </c>
       <c r="C629">
         <f t="shared" ca="1" si="31"/>
-        <v>612967</v>
+        <v>367651</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -21708,7 +21702,7 @@
       </c>
       <c r="C630">
         <f t="shared" ca="1" si="31"/>
-        <v>610084</v>
+        <v>575180</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -21720,7 +21714,7 @@
       </c>
       <c r="C631">
         <f t="shared" ca="1" si="31"/>
-        <v>407938</v>
+        <v>565808</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -21732,7 +21726,7 @@
       </c>
       <c r="C632">
         <f t="shared" ca="1" si="31"/>
-        <v>551412</v>
+        <v>429778</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -21744,7 +21738,7 @@
       </c>
       <c r="C633">
         <f t="shared" ca="1" si="31"/>
-        <v>603290</v>
+        <v>439926</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -21756,7 +21750,7 @@
       </c>
       <c r="C634">
         <f t="shared" ca="1" si="31"/>
-        <v>542505</v>
+        <v>472300</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -21768,7 +21762,7 @@
       </c>
       <c r="C635">
         <f t="shared" ca="1" si="31"/>
-        <v>435503</v>
+        <v>595081</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -21780,11 +21774,11 @@
       </c>
       <c r="C637">
         <f t="shared" ca="1" si="31"/>
-        <v>596430</v>
+        <v>361585</v>
       </c>
       <c r="D637">
         <f t="shared" ca="1" si="31"/>
-        <v>440996</v>
+        <v>456690</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -21796,7 +21790,7 @@
       </c>
       <c r="C638">
         <f t="shared" ca="1" si="31"/>
-        <v>537759</v>
+        <v>597307</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -21808,7 +21802,7 @@
       </c>
       <c r="C639">
         <f t="shared" ca="1" si="31"/>
-        <v>426396</v>
+        <v>605125</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -21820,7 +21814,7 @@
       </c>
       <c r="C640">
         <f t="shared" ca="1" si="31"/>
-        <v>492046</v>
+        <v>452717</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -21832,7 +21826,7 @@
       </c>
       <c r="C641">
         <f t="shared" ca="1" si="31"/>
-        <v>572627</v>
+        <v>479681</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -21844,7 +21838,7 @@
       </c>
       <c r="C642">
         <f t="shared" ca="1" si="31"/>
-        <v>361520</v>
+        <v>593859</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -21856,7 +21850,7 @@
       </c>
       <c r="C643">
         <f t="shared" ca="1" si="31"/>
-        <v>498333</v>
+        <v>601111</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -21868,7 +21862,7 @@
       </c>
       <c r="C644">
         <f t="shared" ca="1" si="31"/>
-        <v>597972</v>
+        <v>443011</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -21880,7 +21874,7 @@
       </c>
       <c r="C645">
         <f t="shared" ca="1" si="31"/>
-        <v>397612</v>
+        <v>459997</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -21892,7 +21886,7 @@
       </c>
       <c r="C646">
         <f t="shared" ca="1" si="31"/>
-        <v>563964</v>
+        <v>391846</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -21904,7 +21898,7 @@
       </c>
       <c r="C647">
         <f t="shared" ca="1" si="31"/>
-        <v>596383</v>
+        <v>589860</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -21916,7 +21910,7 @@
       </c>
       <c r="C648">
         <f t="shared" ca="1" si="31"/>
-        <v>568162</v>
+        <v>468764</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -21928,7 +21922,7 @@
       </c>
       <c r="C649">
         <f t="shared" ca="1" si="31"/>
-        <v>350259</v>
+        <v>482540</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -21940,7 +21934,7 @@
       </c>
       <c r="C650">
         <f t="shared" ca="1" si="31"/>
-        <v>601771</v>
+        <v>435766</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -21952,7 +21946,7 @@
       </c>
       <c r="C651">
         <f t="shared" ca="1" si="31"/>
-        <v>564432</v>
+        <v>419370</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -21964,7 +21958,7 @@
       </c>
       <c r="C652">
         <f t="shared" ca="1" si="31"/>
-        <v>560615</v>
+        <v>345445</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -21976,7 +21970,7 @@
       </c>
       <c r="C653">
         <f t="shared" ca="1" si="31"/>
-        <v>621139</v>
+        <v>611346</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -21988,7 +21982,7 @@
       </c>
       <c r="C654">
         <f t="shared" ca="1" si="31"/>
-        <v>527944</v>
+        <v>566549</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -22000,7 +21994,7 @@
       </c>
       <c r="C655">
         <f t="shared" ca="1" si="31"/>
-        <v>591165</v>
+        <v>540615</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -22012,7 +22006,7 @@
       </c>
       <c r="C656">
         <f t="shared" ca="1" si="31"/>
-        <v>352356</v>
+        <v>394510</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -22024,7 +22018,7 @@
       </c>
       <c r="C657">
         <f t="shared" ca="1" si="31"/>
-        <v>457481</v>
+        <v>502686</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -22036,7 +22030,7 @@
       </c>
       <c r="C658">
         <f t="shared" ca="1" si="31"/>
-        <v>537162</v>
+        <v>578502</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -22048,7 +22042,7 @@
       </c>
       <c r="C659">
         <f t="shared" ca="1" si="31"/>
-        <v>440135</v>
+        <v>558402</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -22060,7 +22054,7 @@
       </c>
       <c r="C660">
         <f t="shared" ca="1" si="31"/>
-        <v>507224</v>
+        <v>369992</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -22072,7 +22066,7 @@
       </c>
       <c r="C661">
         <f t="shared" ca="1" si="31"/>
-        <v>612847</v>
+        <v>352771</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -22084,7 +22078,7 @@
       </c>
       <c r="C662">
         <f t="shared" ca="1" si="31"/>
-        <v>505693</v>
+        <v>469490</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -22096,7 +22090,7 @@
       </c>
       <c r="C663">
         <f t="shared" ca="1" si="31"/>
-        <v>386791</v>
+        <v>513192</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -22108,7 +22102,7 @@
       </c>
       <c r="C664">
         <f t="shared" ca="1" si="31"/>
-        <v>470521</v>
+        <v>446172</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -22120,7 +22114,7 @@
       </c>
       <c r="C665">
         <f t="shared" ca="1" si="31"/>
-        <v>564053</v>
+        <v>566727</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -22132,7 +22126,7 @@
       </c>
       <c r="C666">
         <f t="shared" ca="1" si="31"/>
-        <v>607697</v>
+        <v>416005</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -22144,11 +22138,11 @@
       </c>
       <c r="C668">
         <f t="shared" ca="1" si="31"/>
-        <v>563392</v>
+        <v>377806</v>
       </c>
       <c r="D668">
         <f t="shared" ca="1" si="31"/>
-        <v>372382</v>
+        <v>610456</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -22160,7 +22154,7 @@
       </c>
       <c r="C669">
         <f t="shared" ca="1" si="31"/>
-        <v>361813</v>
+        <v>353308</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -22172,7 +22166,7 @@
       </c>
       <c r="C670">
         <f t="shared" ref="C670:C697" ca="1" si="32">RANDBETWEEN(345000,624900)</f>
-        <v>481039</v>
+        <v>524217</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -22184,7 +22178,7 @@
       </c>
       <c r="C671">
         <f t="shared" ca="1" si="32"/>
-        <v>475853</v>
+        <v>369730</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -22196,7 +22190,7 @@
       </c>
       <c r="C672">
         <f t="shared" ca="1" si="32"/>
-        <v>352935</v>
+        <v>544306</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -22208,7 +22202,7 @@
       </c>
       <c r="C673">
         <f t="shared" ca="1" si="32"/>
-        <v>546844</v>
+        <v>618898</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -22220,7 +22214,7 @@
       </c>
       <c r="C674">
         <f t="shared" ca="1" si="32"/>
-        <v>538405</v>
+        <v>376855</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -22232,7 +22226,7 @@
       </c>
       <c r="C675">
         <f t="shared" ca="1" si="32"/>
-        <v>428813</v>
+        <v>509629</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -22244,7 +22238,7 @@
       </c>
       <c r="C676">
         <f t="shared" ca="1" si="32"/>
-        <v>349237</v>
+        <v>490754</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -22256,7 +22250,7 @@
       </c>
       <c r="C677">
         <f t="shared" ca="1" si="32"/>
-        <v>424340</v>
+        <v>426125</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -22268,7 +22262,7 @@
       </c>
       <c r="C678">
         <f t="shared" ca="1" si="32"/>
-        <v>507924</v>
+        <v>469483</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -22280,7 +22274,7 @@
       </c>
       <c r="C679">
         <f t="shared" ca="1" si="32"/>
-        <v>398832</v>
+        <v>448983</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -22292,7 +22286,7 @@
       </c>
       <c r="C680">
         <f t="shared" ca="1" si="32"/>
-        <v>367830</v>
+        <v>541944</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -22304,7 +22298,7 @@
       </c>
       <c r="C681">
         <f t="shared" ca="1" si="32"/>
-        <v>461280</v>
+        <v>414078</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -22316,7 +22310,7 @@
       </c>
       <c r="C682">
         <f t="shared" ca="1" si="32"/>
-        <v>513716</v>
+        <v>423078</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -22328,7 +22322,7 @@
       </c>
       <c r="C683">
         <f t="shared" ca="1" si="32"/>
-        <v>454056</v>
+        <v>476273</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -22340,7 +22334,7 @@
       </c>
       <c r="C684">
         <f t="shared" ca="1" si="32"/>
-        <v>382358</v>
+        <v>612577</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -22352,7 +22346,7 @@
       </c>
       <c r="C685">
         <f t="shared" ca="1" si="32"/>
-        <v>404776</v>
+        <v>623777</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -22364,7 +22358,7 @@
       </c>
       <c r="C686">
         <f t="shared" ca="1" si="32"/>
-        <v>380593</v>
+        <v>612253</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -22376,7 +22370,7 @@
       </c>
       <c r="C687">
         <f t="shared" ca="1" si="32"/>
-        <v>487798</v>
+        <v>527789</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -22388,7 +22382,7 @@
       </c>
       <c r="C688">
         <f t="shared" ca="1" si="32"/>
-        <v>499111</v>
+        <v>592853</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -22400,7 +22394,7 @@
       </c>
       <c r="C689">
         <f t="shared" ca="1" si="32"/>
-        <v>610366</v>
+        <v>564784</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -22412,7 +22406,7 @@
       </c>
       <c r="C690">
         <f t="shared" ca="1" si="32"/>
-        <v>354071</v>
+        <v>527257</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -22424,7 +22418,7 @@
       </c>
       <c r="C691">
         <f t="shared" ca="1" si="32"/>
-        <v>529616</v>
+        <v>501394</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -22436,7 +22430,7 @@
       </c>
       <c r="C692">
         <f t="shared" ca="1" si="32"/>
-        <v>438810</v>
+        <v>368146</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -22448,7 +22442,7 @@
       </c>
       <c r="C693">
         <f t="shared" ca="1" si="32"/>
-        <v>460987</v>
+        <v>473110</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -22460,7 +22454,7 @@
       </c>
       <c r="C694">
         <f t="shared" ca="1" si="32"/>
-        <v>546234</v>
+        <v>382684</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -22472,7 +22466,7 @@
       </c>
       <c r="C695">
         <f t="shared" ca="1" si="32"/>
-        <v>470327</v>
+        <v>614515</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -22484,7 +22478,7 @@
       </c>
       <c r="C696">
         <f t="shared" ca="1" si="32"/>
-        <v>537257</v>
+        <v>573902</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -22496,7 +22490,7 @@
       </c>
       <c r="C697">
         <f t="shared" ca="1" si="32"/>
-        <v>383797</v>
+        <v>583344</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -22508,11 +22502,11 @@
       </c>
       <c r="C699">
         <f t="shared" ref="C699:D728" ca="1" si="33">RANDBETWEEN(345000,624900)</f>
-        <v>491746</v>
+        <v>420281</v>
       </c>
       <c r="D699">
         <f t="shared" ca="1" si="33"/>
-        <v>360585</v>
+        <v>448543</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -22524,7 +22518,7 @@
       </c>
       <c r="C700">
         <f t="shared" ca="1" si="33"/>
-        <v>507432</v>
+        <v>436174</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
@@ -22536,7 +22530,7 @@
       </c>
       <c r="C701">
         <f t="shared" ca="1" si="33"/>
-        <v>367634</v>
+        <v>620315</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
@@ -22548,7 +22542,7 @@
       </c>
       <c r="C702">
         <f t="shared" ca="1" si="33"/>
-        <v>623820</v>
+        <v>560474</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -22560,7 +22554,7 @@
       </c>
       <c r="C703">
         <f t="shared" ca="1" si="33"/>
-        <v>377348</v>
+        <v>476196</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -22572,7 +22566,7 @@
       </c>
       <c r="C704">
         <f t="shared" ca="1" si="33"/>
-        <v>347951</v>
+        <v>390021</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
@@ -22584,7 +22578,7 @@
       </c>
       <c r="C705">
         <f t="shared" ca="1" si="33"/>
-        <v>402620</v>
+        <v>594012</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
@@ -22596,7 +22590,7 @@
       </c>
       <c r="C706">
         <f t="shared" ca="1" si="33"/>
-        <v>614477</v>
+        <v>546152</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -22608,7 +22602,7 @@
       </c>
       <c r="C707">
         <f t="shared" ca="1" si="33"/>
-        <v>562504</v>
+        <v>528120</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
@@ -22620,7 +22614,7 @@
       </c>
       <c r="C708">
         <f t="shared" ca="1" si="33"/>
-        <v>446000</v>
+        <v>619670</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -22632,7 +22626,7 @@
       </c>
       <c r="C709">
         <f t="shared" ca="1" si="33"/>
-        <v>454258</v>
+        <v>366202</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -22644,7 +22638,7 @@
       </c>
       <c r="C710">
         <f t="shared" ca="1" si="33"/>
-        <v>362591</v>
+        <v>578363</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -22656,7 +22650,7 @@
       </c>
       <c r="C711">
         <f t="shared" ca="1" si="33"/>
-        <v>421867</v>
+        <v>469017</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -22668,7 +22662,7 @@
       </c>
       <c r="C712">
         <f t="shared" ca="1" si="33"/>
-        <v>561473</v>
+        <v>383975</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
@@ -22680,7 +22674,7 @@
       </c>
       <c r="C713">
         <f t="shared" ca="1" si="33"/>
-        <v>489860</v>
+        <v>375930</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -22692,7 +22686,7 @@
       </c>
       <c r="C714">
         <f t="shared" ca="1" si="33"/>
-        <v>599329</v>
+        <v>469932</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -22704,7 +22698,7 @@
       </c>
       <c r="C715">
         <f t="shared" ca="1" si="33"/>
-        <v>511721</v>
+        <v>365459</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -22716,7 +22710,7 @@
       </c>
       <c r="C716">
         <f t="shared" ca="1" si="33"/>
-        <v>446373</v>
+        <v>350355</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -22728,7 +22722,7 @@
       </c>
       <c r="C717">
         <f t="shared" ca="1" si="33"/>
-        <v>579638</v>
+        <v>426549</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -22740,7 +22734,7 @@
       </c>
       <c r="C718">
         <f t="shared" ca="1" si="33"/>
-        <v>553814</v>
+        <v>613187</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -22752,7 +22746,7 @@
       </c>
       <c r="C719">
         <f t="shared" ca="1" si="33"/>
-        <v>456739</v>
+        <v>622300</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -22764,7 +22758,7 @@
       </c>
       <c r="C720">
         <f t="shared" ca="1" si="33"/>
-        <v>372982</v>
+        <v>428520</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -22776,7 +22770,7 @@
       </c>
       <c r="C721">
         <f t="shared" ca="1" si="33"/>
-        <v>615246</v>
+        <v>467590</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
@@ -22788,7 +22782,7 @@
       </c>
       <c r="C722">
         <f t="shared" ca="1" si="33"/>
-        <v>533105</v>
+        <v>400440</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
@@ -22800,7 +22794,7 @@
       </c>
       <c r="C723">
         <f t="shared" ca="1" si="33"/>
-        <v>552057</v>
+        <v>410061</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
@@ -22812,7 +22806,7 @@
       </c>
       <c r="C724">
         <f t="shared" ca="1" si="33"/>
-        <v>348811</v>
+        <v>506236</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -22824,7 +22818,7 @@
       </c>
       <c r="C725">
         <f t="shared" ca="1" si="33"/>
-        <v>610793</v>
+        <v>358451</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -22836,7 +22830,7 @@
       </c>
       <c r="C726">
         <f t="shared" ca="1" si="33"/>
-        <v>357114</v>
+        <v>591227</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
@@ -22848,7 +22842,7 @@
       </c>
       <c r="C727">
         <f t="shared" ca="1" si="33"/>
-        <v>608338</v>
+        <v>472833</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
@@ -22860,7 +22854,7 @@
       </c>
       <c r="C728">
         <f t="shared" ca="1" si="33"/>
-        <v>542041</v>
+        <v>468237</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
@@ -22872,11 +22866,11 @@
       </c>
       <c r="C730">
         <f t="shared" ref="C730:D790" ca="1" si="34">RANDBETWEEN(345000,624900)</f>
-        <v>394348</v>
+        <v>364799</v>
       </c>
       <c r="D730">
         <f t="shared" ca="1" si="34"/>
-        <v>452527</v>
+        <v>442095</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
@@ -22888,7 +22882,7 @@
       </c>
       <c r="C731">
         <f t="shared" ca="1" si="34"/>
-        <v>595823</v>
+        <v>516901</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -22900,7 +22894,7 @@
       </c>
       <c r="C732">
         <f t="shared" ca="1" si="34"/>
-        <v>474431</v>
+        <v>458591</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
@@ -22912,7 +22906,7 @@
       </c>
       <c r="C733">
         <f t="shared" ca="1" si="34"/>
-        <v>597434</v>
+        <v>393026</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
@@ -22924,7 +22918,7 @@
       </c>
       <c r="C734">
         <f t="shared" ca="1" si="34"/>
-        <v>353759</v>
+        <v>594296</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
@@ -22936,7 +22930,7 @@
       </c>
       <c r="C735">
         <f t="shared" ca="1" si="34"/>
-        <v>397699</v>
+        <v>477369</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
@@ -22948,7 +22942,7 @@
       </c>
       <c r="C736">
         <f t="shared" ca="1" si="34"/>
-        <v>512711</v>
+        <v>456559</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -22960,7 +22954,7 @@
       </c>
       <c r="C737">
         <f t="shared" ca="1" si="34"/>
-        <v>479247</v>
+        <v>504528</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -22972,7 +22966,7 @@
       </c>
       <c r="C738">
         <f t="shared" ca="1" si="34"/>
-        <v>357345</v>
+        <v>540778</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
@@ -22984,7 +22978,7 @@
       </c>
       <c r="C739">
         <f t="shared" ca="1" si="34"/>
-        <v>352314</v>
+        <v>573477</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -22996,7 +22990,7 @@
       </c>
       <c r="C740">
         <f t="shared" ca="1" si="34"/>
-        <v>493945</v>
+        <v>616360</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -23008,7 +23002,7 @@
       </c>
       <c r="C741">
         <f t="shared" ca="1" si="34"/>
-        <v>605971</v>
+        <v>451790</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -23020,7 +23014,7 @@
       </c>
       <c r="C742">
         <f t="shared" ca="1" si="34"/>
-        <v>573726</v>
+        <v>471715</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -23032,7 +23026,7 @@
       </c>
       <c r="C743">
         <f t="shared" ca="1" si="34"/>
-        <v>458012</v>
+        <v>577853</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -23044,7 +23038,7 @@
       </c>
       <c r="C744">
         <f t="shared" ca="1" si="34"/>
-        <v>564455</v>
+        <v>557278</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -23056,7 +23050,7 @@
       </c>
       <c r="C745">
         <f t="shared" ca="1" si="34"/>
-        <v>604516</v>
+        <v>540808</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -23068,7 +23062,7 @@
       </c>
       <c r="C746">
         <f t="shared" ca="1" si="34"/>
-        <v>583280</v>
+        <v>622129</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -23080,7 +23074,7 @@
       </c>
       <c r="C747">
         <f t="shared" ca="1" si="34"/>
-        <v>463584</v>
+        <v>426446</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -23092,7 +23086,7 @@
       </c>
       <c r="C748">
         <f t="shared" ca="1" si="34"/>
-        <v>510616</v>
+        <v>387818</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -23104,7 +23098,7 @@
       </c>
       <c r="C749">
         <f t="shared" ca="1" si="34"/>
-        <v>605518</v>
+        <v>611784</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -23116,7 +23110,7 @@
       </c>
       <c r="C750">
         <f t="shared" ca="1" si="34"/>
-        <v>388937</v>
+        <v>527180</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -23128,7 +23122,7 @@
       </c>
       <c r="C751">
         <f t="shared" ca="1" si="34"/>
-        <v>495647</v>
+        <v>595133</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -23140,7 +23134,7 @@
       </c>
       <c r="C752">
         <f t="shared" ca="1" si="34"/>
-        <v>615312</v>
+        <v>464900</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
@@ -23152,7 +23146,7 @@
       </c>
       <c r="C753">
         <f t="shared" ca="1" si="34"/>
-        <v>348583</v>
+        <v>413891</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -23164,7 +23158,7 @@
       </c>
       <c r="C754">
         <f t="shared" ca="1" si="34"/>
-        <v>370091</v>
+        <v>362047</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
@@ -23176,7 +23170,7 @@
       </c>
       <c r="C755">
         <f t="shared" ca="1" si="34"/>
-        <v>618848</v>
+        <v>594700</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
@@ -23188,7 +23182,7 @@
       </c>
       <c r="C756">
         <f t="shared" ca="1" si="34"/>
-        <v>585153</v>
+        <v>562506</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -23200,7 +23194,7 @@
       </c>
       <c r="C757">
         <f t="shared" ca="1" si="34"/>
-        <v>543106</v>
+        <v>510105</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -23212,7 +23206,7 @@
       </c>
       <c r="C758">
         <f t="shared" ca="1" si="34"/>
-        <v>383401</v>
+        <v>526707</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -23224,7 +23218,7 @@
       </c>
       <c r="C759">
         <f t="shared" ca="1" si="34"/>
-        <v>553231</v>
+        <v>428551</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -23236,11 +23230,11 @@
       </c>
       <c r="C761">
         <f t="shared" ca="1" si="34"/>
-        <v>573079</v>
+        <v>406743</v>
       </c>
       <c r="D761">
         <f t="shared" ca="1" si="34"/>
-        <v>572327</v>
+        <v>353872</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
@@ -23252,7 +23246,7 @@
       </c>
       <c r="C762">
         <f t="shared" ca="1" si="34"/>
-        <v>531087</v>
+        <v>356200</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
@@ -23264,7 +23258,7 @@
       </c>
       <c r="C763">
         <f t="shared" ca="1" si="34"/>
-        <v>461281</v>
+        <v>569840</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -23276,7 +23270,7 @@
       </c>
       <c r="C764">
         <f t="shared" ca="1" si="34"/>
-        <v>567626</v>
+        <v>434995</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
@@ -23288,7 +23282,7 @@
       </c>
       <c r="C765">
         <f t="shared" ca="1" si="34"/>
-        <v>571408</v>
+        <v>448260</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
@@ -23300,7 +23294,7 @@
       </c>
       <c r="C766">
         <f t="shared" ca="1" si="34"/>
-        <v>520461</v>
+        <v>551649</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -23312,7 +23306,7 @@
       </c>
       <c r="C767">
         <f t="shared" ca="1" si="34"/>
-        <v>520171</v>
+        <v>434924</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
@@ -23324,7 +23318,7 @@
       </c>
       <c r="C768">
         <f t="shared" ca="1" si="34"/>
-        <v>602121</v>
+        <v>555140</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -23336,7 +23330,7 @@
       </c>
       <c r="C769">
         <f t="shared" ca="1" si="34"/>
-        <v>424926</v>
+        <v>551951</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -23348,7 +23342,7 @@
       </c>
       <c r="C770">
         <f t="shared" ca="1" si="34"/>
-        <v>356741</v>
+        <v>356065</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -23360,7 +23354,7 @@
       </c>
       <c r="C771">
         <f t="shared" ca="1" si="34"/>
-        <v>455686</v>
+        <v>581765</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -23372,7 +23366,7 @@
       </c>
       <c r="C772">
         <f t="shared" ca="1" si="34"/>
-        <v>504020</v>
+        <v>366298</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -23384,7 +23378,7 @@
       </c>
       <c r="C773">
         <f t="shared" ca="1" si="34"/>
-        <v>459580</v>
+        <v>575692</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -23396,7 +23390,7 @@
       </c>
       <c r="C774">
         <f t="shared" ca="1" si="34"/>
-        <v>444281</v>
+        <v>525267</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -23408,7 +23402,7 @@
       </c>
       <c r="C775">
         <f t="shared" ca="1" si="34"/>
-        <v>569871</v>
+        <v>481690</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -23420,7 +23414,7 @@
       </c>
       <c r="C776">
         <f t="shared" ca="1" si="34"/>
-        <v>484109</v>
+        <v>543837</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -23432,7 +23426,7 @@
       </c>
       <c r="C777">
         <f t="shared" ca="1" si="34"/>
-        <v>524274</v>
+        <v>435399</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -23444,7 +23438,7 @@
       </c>
       <c r="C778">
         <f t="shared" ca="1" si="34"/>
-        <v>369920</v>
+        <v>382092</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -23456,7 +23450,7 @@
       </c>
       <c r="C779">
         <f t="shared" ca="1" si="34"/>
-        <v>457282</v>
+        <v>542798</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -23468,7 +23462,7 @@
       </c>
       <c r="C780">
         <f t="shared" ca="1" si="34"/>
-        <v>456996</v>
+        <v>488690</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -23480,7 +23474,7 @@
       </c>
       <c r="C781">
         <f t="shared" ca="1" si="34"/>
-        <v>524126</v>
+        <v>561899</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -23492,7 +23486,7 @@
       </c>
       <c r="C782">
         <f t="shared" ca="1" si="34"/>
-        <v>367573</v>
+        <v>599450</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -23504,7 +23498,7 @@
       </c>
       <c r="C783">
         <f t="shared" ca="1" si="34"/>
-        <v>426450</v>
+        <v>399083</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -23516,7 +23510,7 @@
       </c>
       <c r="C784">
         <f t="shared" ca="1" si="34"/>
-        <v>556345</v>
+        <v>391655</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -23528,7 +23522,7 @@
       </c>
       <c r="C785">
         <f t="shared" ca="1" si="34"/>
-        <v>351640</v>
+        <v>473073</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -23540,7 +23534,7 @@
       </c>
       <c r="C786">
         <f t="shared" ca="1" si="34"/>
-        <v>570993</v>
+        <v>577202</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -23552,7 +23546,7 @@
       </c>
       <c r="C787">
         <f t="shared" ca="1" si="34"/>
-        <v>595689</v>
+        <v>529213</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -23564,7 +23558,7 @@
       </c>
       <c r="C788">
         <f t="shared" ca="1" si="34"/>
-        <v>391760</v>
+        <v>521979</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -23576,7 +23570,7 @@
       </c>
       <c r="C789">
         <f t="shared" ca="1" si="34"/>
-        <v>624232</v>
+        <v>358655</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -23588,7 +23582,7 @@
       </c>
       <c r="C790">
         <f t="shared" ca="1" si="34"/>
-        <v>390983</v>
+        <v>369484</v>
       </c>
     </row>
   </sheetData>
@@ -23601,10 +23595,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23642,7 +23636,7 @@
         <v>427</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>428</v>
@@ -23659,13 +23653,13 @@
         <v>41374</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
         <v>227</v>
@@ -23674,7 +23668,7 @@
         <v>6221</v>
       </c>
       <c r="I2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -23688,13 +23682,13 @@
         <v>41374</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
         <v>224</v>
@@ -23703,33 +23697,36 @@
         <v>6687</v>
       </c>
       <c r="I3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="C4" s="37">
-        <v>41374</v>
+        <v>41375</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F4" t="s">
         <v>448</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="H4" s="22">
-        <v>6398</v>
+        <v>6705</v>
+      </c>
+      <c r="I4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -23743,13 +23740,13 @@
         <v>41374</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
         <v>231</v>
@@ -23769,13 +23766,13 @@
         <v>41374</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G6" t="s">
         <v>229</v>
@@ -23784,7 +23781,7 @@
         <v>6662</v>
       </c>
       <c r="I6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -23798,13 +23795,13 @@
         <v>41374</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G7" t="s">
         <v>311</v>
@@ -23813,7 +23810,7 @@
         <v>6705</v>
       </c>
       <c r="I7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -23827,13 +23824,13 @@
         <v>41375</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G8" t="s">
         <v>216</v>
@@ -23842,36 +23839,7 @@
         <v>6774</v>
       </c>
       <c r="I8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="37">
-        <v>41375</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F9" t="s">
-        <v>450</v>
-      </c>
-      <c r="G9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="22">
-        <v>6705</v>
-      </c>
-      <c r="I9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/data/SAEM-1 Data.xlsx
+++ b/data/SAEM-1 Data.xlsx
@@ -14580,7 +14580,7 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" ca="1" si="0">RANDBETWEEN(345000,624900)</f>
-        <v>527437</v>
+        <v>353348</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>481959</v>
+        <v>556334</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>380864</v>
+        <v>622162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="D8">
         <f ca="1">RANDBETWEEN(345000,624900)</f>
-        <v>550473</v>
+        <v>438985</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D17" ca="1" si="1">RANDBETWEEN(345000,624900)</f>
-        <v>520637</v>
+        <v>598262</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>579515</v>
+        <v>609949</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>458590</v>
+        <v>612733</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>548783</v>
+        <v>543917</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>504607</v>
+        <v>382507</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>494574</v>
+        <v>581011</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>522179</v>
+        <v>610286</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>473407</v>
+        <v>403688</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D24" ca="1" si="2">RANDBETWEEN(345000,624900)</f>
-        <v>534538</v>
+        <v>421389</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>349145</v>
+        <v>468310</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -14762,7 +14762,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>431150</v>
+        <v>420179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>507549</v>
+        <v>410030</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -14786,11 +14786,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C35" ca="1" si="3">RANDBETWEEN(345000,624900)</f>
-        <v>503298</v>
+        <v>544193</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26" ca="1" si="4">RANDBETWEEN(345000,624900)</f>
-        <v>623544</v>
+        <v>591616</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>426950</v>
+        <v>525056</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>455932</v>
+        <v>490475</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>506961</v>
+        <v>347090</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>503310</v>
+        <v>446662</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>402538</v>
+        <v>617534</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>391541</v>
+        <v>522744</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>584450</v>
+        <v>374754</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>376224</v>
+        <v>461446</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>618203</v>
+        <v>435809</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14910,11 +14910,11 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C46" ca="1" si="5">RANDBETWEEN(345000,624900)</f>
-        <v>536142</v>
+        <v>423422</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37" ca="1" si="6">RANDBETWEEN(345000,624900)</f>
-        <v>448132</v>
+        <v>383698</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>520852</v>
+        <v>418976</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="5"/>
-        <v>381557</v>
+        <v>603703</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="5"/>
-        <v>418223</v>
+        <v>562365</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -14962,7 +14962,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="5"/>
-        <v>549146</v>
+        <v>347689</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="5"/>
-        <v>623829</v>
+        <v>509311</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="5"/>
-        <v>462721</v>
+        <v>389461</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -14998,7 +14998,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="5"/>
-        <v>350361</v>
+        <v>483951</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="5"/>
-        <v>478002</v>
+        <v>605964</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="5"/>
-        <v>414562</v>
+        <v>479268</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -15034,11 +15034,11 @@
       </c>
       <c r="C48">
         <f t="shared" ref="C48:C57" ca="1" si="7">RANDBETWEEN(345000,624900)</f>
-        <v>448268</v>
+        <v>575190</v>
       </c>
       <c r="D48">
         <f t="shared" ref="D48" ca="1" si="8">RANDBETWEEN(345000,624900)</f>
-        <v>477340</v>
+        <v>602274</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>549086</v>
+        <v>348769</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>516509</v>
+        <v>393417</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>350780</v>
+        <v>615117</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>449290</v>
+        <v>458623</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>510068</v>
+        <v>529675</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -15110,7 +15110,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>412065</v>
+        <v>507014</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -15122,7 +15122,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>542575</v>
+        <v>496883</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>350308</v>
+        <v>557242</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>604505</v>
+        <v>487623</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="E60">
         <f t="shared" ref="E60:E63" ca="1" si="9">RANDBETWEEN(345000,624900)</f>
-        <v>500606</v>
+        <v>571214</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>531220</v>
+        <v>592492</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>375926</v>
+        <v>383459</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>508059</v>
+        <v>391052</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -15216,7 +15216,7 @@
       </c>
       <c r="D64">
         <f t="shared" ref="D64:D65" ca="1" si="10">RANDBETWEEN(345000,624900)</f>
-        <v>463985</v>
+        <v>526236</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -15228,7 +15228,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="10"/>
-        <v>452191</v>
+        <v>600943</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D75" ca="1" si="11">RANDBETWEEN(345000,624900)</f>
-        <v>439140</v>
+        <v>608598</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -15257,7 +15257,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
-        <v>617446</v>
+        <v>578898</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
-        <v>361089</v>
+        <v>584290</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
-        <v>473451</v>
+        <v>371079</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
-        <v>379485</v>
+        <v>436400</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
-        <v>513747</v>
+        <v>484412</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
-        <v>351506</v>
+        <v>494513</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -15329,11 +15329,11 @@
       </c>
       <c r="C75">
         <f t="shared" ref="C75:C104" ca="1" si="12">RANDBETWEEN(345000,624900)</f>
-        <v>438222</v>
+        <v>524778</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>449449</v>
+        <v>380555</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="12"/>
-        <v>460477</v>
+        <v>591411</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="12"/>
-        <v>571970</v>
+        <v>400862</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="12"/>
-        <v>403212</v>
+        <v>617596</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="12"/>
-        <v>365945</v>
+        <v>447990</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="12"/>
-        <v>424223</v>
+        <v>519264</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="12"/>
-        <v>409895</v>
+        <v>459843</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="12"/>
-        <v>565081</v>
+        <v>559870</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="12"/>
-        <v>597764</v>
+        <v>534753</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="12"/>
-        <v>424362</v>
+        <v>383467</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="12"/>
-        <v>484626</v>
+        <v>468752</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="12"/>
-        <v>496625</v>
+        <v>381363</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="12"/>
-        <v>351163</v>
+        <v>566395</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="12"/>
-        <v>477930</v>
+        <v>491481</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>382698</v>
+        <v>488213</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>449292</v>
+        <v>493234</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>450064</v>
+        <v>588635</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>438626</v>
+        <v>503127</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>532744</v>
+        <v>520435</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>512740</v>
+        <v>441300</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>453664</v>
+        <v>538869</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>478451</v>
+        <v>462607</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>389835</v>
+        <v>585689</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>570014</v>
+        <v>605318</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>458366</v>
+        <v>476473</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>473810</v>
+        <v>436910</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>501104</v>
+        <v>397549</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="12"/>
-        <v>594603</v>
+        <v>441149</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="12"/>
-        <v>588022</v>
+        <v>420341</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="12"/>
-        <v>522150</v>
+        <v>528356</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -15693,11 +15693,11 @@
       </c>
       <c r="C106">
         <f t="shared" ref="C106:D169" ca="1" si="13">RANDBETWEEN(345000,624900)</f>
-        <v>452254</v>
+        <v>570803</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="13"/>
-        <v>563142</v>
+        <v>362018</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="13"/>
-        <v>366201</v>
+        <v>623913</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="13"/>
-        <v>597916</v>
+        <v>594425</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="13"/>
-        <v>357853</v>
+        <v>619318</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -15745,7 +15745,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="13"/>
-        <v>536665</v>
+        <v>437608</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="13"/>
-        <v>532225</v>
+        <v>502388</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="13"/>
-        <v>605387</v>
+        <v>437205</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="13"/>
-        <v>463329</v>
+        <v>419277</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15793,7 +15793,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="13"/>
-        <v>392017</v>
+        <v>448215</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="13"/>
-        <v>410944</v>
+        <v>481608</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="13"/>
-        <v>483382</v>
+        <v>523454</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -15829,7 +15829,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="13"/>
-        <v>492113</v>
+        <v>432488</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="13"/>
-        <v>516095</v>
+        <v>405992</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="13"/>
-        <v>584779</v>
+        <v>587907</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="13"/>
-        <v>503641</v>
+        <v>508959</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="13"/>
-        <v>433124</v>
+        <v>578908</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="13"/>
-        <v>480744</v>
+        <v>621121</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="13"/>
-        <v>615379</v>
+        <v>533210</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="13"/>
-        <v>581341</v>
+        <v>598823</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="13"/>
-        <v>481345</v>
+        <v>506728</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="13"/>
-        <v>464236</v>
+        <v>530950</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="13"/>
-        <v>422270</v>
+        <v>488492</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="13"/>
-        <v>503220</v>
+        <v>458688</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="13"/>
-        <v>359880</v>
+        <v>396620</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -15985,7 +15985,7 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="13"/>
-        <v>591274</v>
+        <v>369647</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="13"/>
-        <v>353824</v>
+        <v>473011</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="13"/>
-        <v>498184</v>
+        <v>460323</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="13"/>
-        <v>479773</v>
+        <v>425109</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="13"/>
-        <v>589461</v>
+        <v>426900</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="13"/>
-        <v>518988</v>
+        <v>435348</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -16057,11 +16057,11 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="13"/>
-        <v>525764</v>
+        <v>414497</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="13"/>
-        <v>488332</v>
+        <v>481750</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="13"/>
-        <v>426926</v>
+        <v>563072</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="13"/>
-        <v>587030</v>
+        <v>503748</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="13"/>
-        <v>391973</v>
+        <v>388065</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -16109,7 +16109,7 @@
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="13"/>
-        <v>434413</v>
+        <v>596765</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="13"/>
-        <v>495475</v>
+        <v>438594</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="13"/>
-        <v>571314</v>
+        <v>549052</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -16145,7 +16145,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="13"/>
-        <v>384043</v>
+        <v>428280</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="13"/>
-        <v>568611</v>
+        <v>618593</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="13"/>
-        <v>598382</v>
+        <v>517060</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -16181,7 +16181,7 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="13"/>
-        <v>498432</v>
+        <v>369692</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -16193,7 +16193,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="13"/>
-        <v>601738</v>
+        <v>459573</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="13"/>
-        <v>618429</v>
+        <v>369430</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="13"/>
-        <v>436126</v>
+        <v>354379</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -16229,7 +16229,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="13"/>
-        <v>593529</v>
+        <v>381869</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="13"/>
-        <v>463029</v>
+        <v>506349</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="13"/>
-        <v>424558</v>
+        <v>352809</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -16265,7 +16265,7 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="13"/>
-        <v>619996</v>
+        <v>424865</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -16277,7 +16277,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="13"/>
-        <v>389760</v>
+        <v>553682</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="13"/>
-        <v>578517</v>
+        <v>345342</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="13"/>
-        <v>444750</v>
+        <v>505459</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="13"/>
-        <v>474942</v>
+        <v>613753</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -16325,7 +16325,7 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="13"/>
-        <v>381443</v>
+        <v>404444</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="13"/>
-        <v>433722</v>
+        <v>481306</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="13"/>
-        <v>423684</v>
+        <v>496945</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -16361,7 +16361,7 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="13"/>
-        <v>487751</v>
+        <v>483880</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="13"/>
-        <v>523442</v>
+        <v>426087</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="13"/>
-        <v>529795</v>
+        <v>464093</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="13"/>
-        <v>531665</v>
+        <v>481187</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="13"/>
-        <v>622323</v>
+        <v>543891</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -16421,11 +16421,11 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="13"/>
-        <v>444195</v>
+        <v>472860</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="13"/>
-        <v>543494</v>
+        <v>448535</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="13"/>
-        <v>495990</v>
+        <v>378366</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="C170">
         <f t="shared" ref="C170:C197" ca="1" si="14">RANDBETWEEN(345000,624900)</f>
-        <v>486479</v>
+        <v>428610</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="14"/>
-        <v>356356</v>
+        <v>566541</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="14"/>
-        <v>484332</v>
+        <v>506102</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="14"/>
-        <v>454795</v>
+        <v>569423</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="14"/>
-        <v>382584</v>
+        <v>588970</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="14"/>
-        <v>367761</v>
+        <v>576276</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="14"/>
-        <v>616833</v>
+        <v>547398</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="14"/>
-        <v>531609</v>
+        <v>509937</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="14"/>
-        <v>358502</v>
+        <v>541970</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="14"/>
-        <v>434907</v>
+        <v>535122</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="14"/>
-        <v>495383</v>
+        <v>613779</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="14"/>
-        <v>520884</v>
+        <v>423989</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="14"/>
-        <v>524147</v>
+        <v>486140</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="14"/>
-        <v>591930</v>
+        <v>452341</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="14"/>
-        <v>362833</v>
+        <v>492385</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="14"/>
-        <v>441750</v>
+        <v>511336</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="14"/>
-        <v>378833</v>
+        <v>418539</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="14"/>
-        <v>466764</v>
+        <v>448115</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="14"/>
-        <v>610577</v>
+        <v>457944</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="14"/>
-        <v>356461</v>
+        <v>463008</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="14"/>
-        <v>449753</v>
+        <v>572569</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="14"/>
-        <v>473244</v>
+        <v>351065</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="14"/>
-        <v>570224</v>
+        <v>434257</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="14"/>
-        <v>415408</v>
+        <v>599961</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="14"/>
-        <v>586146</v>
+        <v>452627</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="14"/>
-        <v>501171</v>
+        <v>615676</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="14"/>
-        <v>384543</v>
+        <v>418802</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="14"/>
-        <v>453612</v>
+        <v>527944</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -16785,11 +16785,11 @@
       </c>
       <c r="C199">
         <f t="shared" ref="C199:D228" ca="1" si="15">RANDBETWEEN(345000,624900)</f>
-        <v>540786</v>
+        <v>370904</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="15"/>
-        <v>505444</v>
+        <v>424524</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="15"/>
-        <v>527915</v>
+        <v>511677</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="15"/>
-        <v>446694</v>
+        <v>521121</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -16825,7 +16825,7 @@
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="15"/>
-        <v>610581</v>
+        <v>475454</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="15"/>
-        <v>598394</v>
+        <v>516814</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -16849,7 +16849,7 @@
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="15"/>
-        <v>451851</v>
+        <v>421345</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="15"/>
-        <v>584946</v>
+        <v>550233</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="15"/>
-        <v>598858</v>
+        <v>585712</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -16885,7 +16885,7 @@
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="15"/>
-        <v>475871</v>
+        <v>368571</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="15"/>
-        <v>350096</v>
+        <v>491021</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="15"/>
-        <v>478175</v>
+        <v>488766</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="15"/>
-        <v>577344</v>
+        <v>392328</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -16933,7 +16933,7 @@
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="15"/>
-        <v>621324</v>
+        <v>358581</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="15"/>
-        <v>515287</v>
+        <v>368915</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="15"/>
-        <v>613734</v>
+        <v>450837</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="15"/>
-        <v>409903</v>
+        <v>361259</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="15"/>
-        <v>423438</v>
+        <v>608926</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="15"/>
-        <v>355156</v>
+        <v>608241</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="15"/>
-        <v>612314</v>
+        <v>583800</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="15"/>
-        <v>539425</v>
+        <v>564643</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="15"/>
-        <v>413052</v>
+        <v>590944</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="15"/>
-        <v>444546</v>
+        <v>515742</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="15"/>
-        <v>470681</v>
+        <v>590100</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="15"/>
-        <v>616622</v>
+        <v>449259</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -17077,7 +17077,7 @@
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="15"/>
-        <v>434738</v>
+        <v>447748</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -17089,7 +17089,7 @@
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="15"/>
-        <v>444835</v>
+        <v>395910</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="15"/>
-        <v>392604</v>
+        <v>528330</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="15"/>
-        <v>458129</v>
+        <v>597424</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -17125,7 +17125,7 @@
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="15"/>
-        <v>434864</v>
+        <v>351859</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="15"/>
-        <v>584473</v>
+        <v>498284</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -17149,11 +17149,11 @@
       </c>
       <c r="C230">
         <f t="shared" ref="C230:E292" ca="1" si="16">RANDBETWEEN(345000,624900)</f>
-        <v>490564</v>
+        <v>516559</v>
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="16"/>
-        <v>482080</v>
+        <v>461568</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="16"/>
-        <v>471676</v>
+        <v>377531</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="16"/>
-        <v>495984</v>
+        <v>400420</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="16"/>
-        <v>549149</v>
+        <v>556685</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="16"/>
-        <v>411021</v>
+        <v>390637</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="16"/>
-        <v>473164</v>
+        <v>357904</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="16"/>
-        <v>386745</v>
+        <v>362735</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="16"/>
-        <v>577361</v>
+        <v>418868</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="16"/>
-        <v>613162</v>
+        <v>388377</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -17261,7 +17261,7 @@
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="16"/>
-        <v>620580</v>
+        <v>586876</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -17273,7 +17273,7 @@
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="16"/>
-        <v>487051</v>
+        <v>456639</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -17285,7 +17285,7 @@
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="16"/>
-        <v>405604</v>
+        <v>473700</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="16"/>
-        <v>442741</v>
+        <v>603035</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="16"/>
-        <v>539769</v>
+        <v>363402</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="16"/>
-        <v>586598</v>
+        <v>464519</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="16"/>
-        <v>354053</v>
+        <v>495416</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="16"/>
-        <v>579497</v>
+        <v>591800</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="16"/>
-        <v>366308</v>
+        <v>523602</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="16"/>
-        <v>564416</v>
+        <v>405983</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -17381,7 +17381,7 @@
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="16"/>
-        <v>612739</v>
+        <v>508988</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="16"/>
-        <v>375015</v>
+        <v>394118</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="16"/>
-        <v>380006</v>
+        <v>517375</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -17417,7 +17417,7 @@
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="16"/>
-        <v>614616</v>
+        <v>362670</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="16"/>
-        <v>505366</v>
+        <v>408959</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="16"/>
-        <v>505278</v>
+        <v>428112</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -17453,7 +17453,7 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="16"/>
-        <v>406610</v>
+        <v>348566</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="16"/>
-        <v>606425</v>
+        <v>591406</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="16"/>
-        <v>402951</v>
+        <v>584985</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="16"/>
-        <v>592991</v>
+        <v>527710</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="16"/>
-        <v>431871</v>
+        <v>578542</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -17513,11 +17513,11 @@
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="16"/>
-        <v>354171</v>
+        <v>454050</v>
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="16"/>
-        <v>438548</v>
+        <v>585880</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="16"/>
-        <v>572384</v>
+        <v>500943</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="16"/>
-        <v>449657</v>
+        <v>411164</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="16"/>
-        <v>417435</v>
+        <v>393382</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="16"/>
-        <v>609308</v>
+        <v>438677</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="16"/>
-        <v>386596</v>
+        <v>519597</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="16"/>
-        <v>598549</v>
+        <v>553816</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="16"/>
-        <v>510205</v>
+        <v>474564</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="16"/>
-        <v>572545</v>
+        <v>536030</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -17625,7 +17625,7 @@
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="16"/>
-        <v>594699</v>
+        <v>440549</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="16"/>
-        <v>609227</v>
+        <v>531584</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="16"/>
-        <v>499103</v>
+        <v>476683</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="16"/>
-        <v>438139</v>
+        <v>619577</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="16"/>
-        <v>579934</v>
+        <v>471023</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="16"/>
-        <v>350787</v>
+        <v>598436</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="16"/>
-        <v>390434</v>
+        <v>546262</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="16"/>
-        <v>522333</v>
+        <v>574422</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="16"/>
-        <v>618700</v>
+        <v>616908</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="16"/>
-        <v>482629</v>
+        <v>544006</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="16"/>
-        <v>624858</v>
+        <v>574807</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -17757,7 +17757,7 @@
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="16"/>
-        <v>576557</v>
+        <v>389585</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="16"/>
-        <v>512864</v>
+        <v>396803</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="16"/>
-        <v>400372</v>
+        <v>367779</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="16"/>
-        <v>391171</v>
+        <v>537318</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -17805,7 +17805,7 @@
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="16"/>
-        <v>439867</v>
+        <v>359330</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="16"/>
-        <v>370210</v>
+        <v>441731</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -17829,7 +17829,7 @@
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="16"/>
-        <v>363947</v>
+        <v>562599</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="16"/>
-        <v>500442</v>
+        <v>428157</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="16"/>
-        <v>448007</v>
+        <v>582379</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="16"/>
-        <v>530837</v>
+        <v>499210</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -17882,7 +17882,7 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="16"/>
-        <v>479207</v>
+        <v>595891</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17894,7 +17894,7 @@
       </c>
       <c r="E293">
         <f t="shared" ref="E293:E301" ca="1" si="17">RANDBETWEEN(345000,624900)</f>
-        <v>572444</v>
+        <v>451033</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="17"/>
-        <v>565448</v>
+        <v>512402</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="17"/>
-        <v>507035</v>
+        <v>482794</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17930,7 +17930,7 @@
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="17"/>
-        <v>495982</v>
+        <v>436104</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17942,7 +17942,7 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="17"/>
-        <v>484143</v>
+        <v>477595</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17954,7 +17954,7 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="17"/>
-        <v>453389</v>
+        <v>504088</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17966,7 +17966,7 @@
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="17"/>
-        <v>599769</v>
+        <v>437816</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17978,7 +17978,7 @@
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="17"/>
-        <v>582795</v>
+        <v>443647</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17990,7 +17990,7 @@
       </c>
       <c r="E301">
         <f t="shared" ca="1" si="17"/>
-        <v>600862</v>
+        <v>474852</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18002,7 +18002,7 @@
       </c>
       <c r="D302">
         <f t="shared" ref="D302:D307" ca="1" si="18">RANDBETWEEN(345000,624900)</f>
-        <v>477867</v>
+        <v>618643</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="D303">
         <f t="shared" ca="1" si="18"/>
-        <v>475462</v>
+        <v>623893</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="D304">
         <f t="shared" ca="1" si="18"/>
-        <v>507994</v>
+        <v>586680</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18038,7 +18038,7 @@
       </c>
       <c r="D305">
         <f t="shared" ca="1" si="18"/>
-        <v>612270</v>
+        <v>352024</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="D306">
         <f t="shared" ca="1" si="18"/>
-        <v>455361</v>
+        <v>605494</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="D307">
         <f t="shared" ca="1" si="18"/>
-        <v>619539</v>
+        <v>352754</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="E308">
         <f t="shared" ref="E308" ca="1" si="19">RANDBETWEEN(345000,624900)</f>
-        <v>495657</v>
+        <v>388037</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18091,11 +18091,11 @@
       </c>
       <c r="C310">
         <f t="shared" ref="C310:D339" ca="1" si="20">RANDBETWEEN(345000,624900)</f>
-        <v>477340</v>
+        <v>552078</v>
       </c>
       <c r="D310">
         <f t="shared" ca="1" si="20"/>
-        <v>349128</v>
+        <v>412877</v>
       </c>
       <c r="E310"/>
       <c r="F310"/>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="20"/>
-        <v>506544</v>
+        <v>412383</v>
       </c>
       <c r="D311"/>
       <c r="E311"/>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="20"/>
-        <v>543320</v>
+        <v>624255</v>
       </c>
       <c r="D312"/>
       <c r="E312"/>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="20"/>
-        <v>619134</v>
+        <v>373970</v>
       </c>
       <c r="D313"/>
       <c r="E313"/>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="20"/>
-        <v>597516</v>
+        <v>503709</v>
       </c>
       <c r="D314"/>
       <c r="E314"/>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="20"/>
-        <v>419742</v>
+        <v>454469</v>
       </c>
       <c r="D315"/>
       <c r="E315"/>
@@ -18184,7 +18184,7 @@
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="20"/>
-        <v>363943</v>
+        <v>606900</v>
       </c>
       <c r="D316"/>
       <c r="E316"/>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="20"/>
-        <v>480126</v>
+        <v>488755</v>
       </c>
       <c r="D317"/>
       <c r="E317"/>
@@ -18214,7 +18214,7 @@
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="20"/>
-        <v>531345</v>
+        <v>380834</v>
       </c>
       <c r="D318"/>
       <c r="E318"/>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="20"/>
-        <v>511651</v>
+        <v>614295</v>
       </c>
       <c r="D319"/>
       <c r="E319"/>
@@ -18244,7 +18244,7 @@
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="20"/>
-        <v>475011</v>
+        <v>601031</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="20"/>
-        <v>590663</v>
+        <v>489795</v>
       </c>
       <c r="D321"/>
       <c r="E321"/>
@@ -18274,7 +18274,7 @@
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="20"/>
-        <v>377663</v>
+        <v>524766</v>
       </c>
       <c r="D322"/>
       <c r="E322"/>
@@ -18289,7 +18289,7 @@
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="20"/>
-        <v>386003</v>
+        <v>608160</v>
       </c>
       <c r="D323"/>
       <c r="E323"/>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="20"/>
-        <v>526987</v>
+        <v>378323</v>
       </c>
       <c r="D324"/>
       <c r="E324"/>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="20"/>
-        <v>505239</v>
+        <v>444695</v>
       </c>
       <c r="D325"/>
       <c r="E325"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="20"/>
-        <v>366198</v>
+        <v>604919</v>
       </c>
       <c r="D326"/>
       <c r="E326"/>
@@ -18349,7 +18349,7 @@
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="20"/>
-        <v>515142</v>
+        <v>492812</v>
       </c>
       <c r="D327"/>
       <c r="E327"/>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="20"/>
-        <v>377283</v>
+        <v>596993</v>
       </c>
       <c r="D328"/>
       <c r="E328"/>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="20"/>
-        <v>477100</v>
+        <v>613993</v>
       </c>
       <c r="D329"/>
       <c r="E329"/>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="20"/>
-        <v>467594</v>
+        <v>490826</v>
       </c>
       <c r="D330"/>
       <c r="E330"/>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="20"/>
-        <v>377572</v>
+        <v>399848</v>
       </c>
       <c r="D331"/>
       <c r="E331"/>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="20"/>
-        <v>465079</v>
+        <v>442043</v>
       </c>
       <c r="D332"/>
       <c r="E332"/>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="20"/>
-        <v>549695</v>
+        <v>456414</v>
       </c>
       <c r="D333"/>
       <c r="E333"/>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="20"/>
-        <v>465541</v>
+        <v>435367</v>
       </c>
       <c r="D334"/>
       <c r="E334"/>
@@ -18469,7 +18469,7 @@
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="20"/>
-        <v>462417</v>
+        <v>443809</v>
       </c>
       <c r="D335"/>
       <c r="E335"/>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="20"/>
-        <v>551852</v>
+        <v>393503</v>
       </c>
       <c r="D336"/>
       <c r="E336"/>
@@ -18499,7 +18499,7 @@
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="20"/>
-        <v>552012</v>
+        <v>374011</v>
       </c>
       <c r="D337"/>
       <c r="E337"/>
@@ -18514,7 +18514,7 @@
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="20"/>
-        <v>558443</v>
+        <v>392333</v>
       </c>
       <c r="D338"/>
       <c r="E338"/>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="20"/>
-        <v>348644</v>
+        <v>422849</v>
       </c>
       <c r="D339"/>
       <c r="E339"/>
@@ -18552,11 +18552,11 @@
       </c>
       <c r="C341">
         <f t="shared" ref="C341:D404" ca="1" si="21">RANDBETWEEN(345000,624900)</f>
-        <v>554367</v>
+        <v>466061</v>
       </c>
       <c r="D341">
         <f t="shared" ca="1" si="21"/>
-        <v>475153</v>
+        <v>609199</v>
       </c>
       <c r="E341"/>
       <c r="F341"/>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="21"/>
-        <v>529632</v>
+        <v>436335</v>
       </c>
       <c r="D342"/>
       <c r="E342"/>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="21"/>
-        <v>577703</v>
+        <v>552808</v>
       </c>
       <c r="D343"/>
       <c r="E343"/>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="21"/>
-        <v>350461</v>
+        <v>476979</v>
       </c>
       <c r="D344"/>
       <c r="E344"/>
@@ -18615,7 +18615,7 @@
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="21"/>
-        <v>490879</v>
+        <v>459114</v>
       </c>
       <c r="D345"/>
       <c r="E345"/>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="21"/>
-        <v>478013</v>
+        <v>609481</v>
       </c>
       <c r="D346"/>
       <c r="E346"/>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="21"/>
-        <v>394870</v>
+        <v>509935</v>
       </c>
       <c r="D347"/>
       <c r="E347"/>
@@ -18660,7 +18660,7 @@
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="21"/>
-        <v>443647</v>
+        <v>592252</v>
       </c>
       <c r="D348"/>
       <c r="E348"/>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="21"/>
-        <v>408703</v>
+        <v>360188</v>
       </c>
       <c r="D349"/>
       <c r="E349"/>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="21"/>
-        <v>378341</v>
+        <v>419992</v>
       </c>
       <c r="D350"/>
       <c r="E350"/>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="21"/>
-        <v>609944</v>
+        <v>421105</v>
       </c>
       <c r="D351"/>
       <c r="E351"/>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="21"/>
-        <v>575602</v>
+        <v>388261</v>
       </c>
       <c r="D352"/>
       <c r="E352"/>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="21"/>
-        <v>489241</v>
+        <v>604727</v>
       </c>
       <c r="D353"/>
       <c r="E353"/>
@@ -18750,7 +18750,7 @@
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="21"/>
-        <v>602308</v>
+        <v>371800</v>
       </c>
       <c r="D354"/>
       <c r="E354"/>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="21"/>
-        <v>544492</v>
+        <v>545891</v>
       </c>
       <c r="D355"/>
       <c r="E355"/>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="21"/>
-        <v>437358</v>
+        <v>450125</v>
       </c>
       <c r="D356"/>
       <c r="E356"/>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="21"/>
-        <v>620909</v>
+        <v>354421</v>
       </c>
       <c r="D357"/>
       <c r="E357"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="21"/>
-        <v>562100</v>
+        <v>580531</v>
       </c>
       <c r="D358"/>
       <c r="E358"/>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="21"/>
-        <v>567848</v>
+        <v>512891</v>
       </c>
       <c r="D359"/>
       <c r="E359"/>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="21"/>
-        <v>552399</v>
+        <v>521585</v>
       </c>
       <c r="D360"/>
       <c r="E360"/>
@@ -18855,7 +18855,7 @@
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="21"/>
-        <v>387430</v>
+        <v>563366</v>
       </c>
       <c r="D361"/>
       <c r="E361"/>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="21"/>
-        <v>429691</v>
+        <v>348446</v>
       </c>
       <c r="D362"/>
       <c r="E362"/>
@@ -18885,7 +18885,7 @@
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="21"/>
-        <v>428032</v>
+        <v>457556</v>
       </c>
       <c r="D363"/>
       <c r="E363"/>
@@ -18900,7 +18900,7 @@
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="21"/>
-        <v>594951</v>
+        <v>573994</v>
       </c>
       <c r="D364"/>
       <c r="E364"/>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="21"/>
-        <v>548102</v>
+        <v>568101</v>
       </c>
       <c r="D365"/>
       <c r="E365"/>
@@ -18930,7 +18930,7 @@
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="21"/>
-        <v>475994</v>
+        <v>614122</v>
       </c>
       <c r="D366"/>
       <c r="E366"/>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="21"/>
-        <v>608992</v>
+        <v>490882</v>
       </c>
       <c r="D367"/>
       <c r="E367"/>
@@ -18960,7 +18960,7 @@
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="21"/>
-        <v>622468</v>
+        <v>553436</v>
       </c>
       <c r="D368"/>
       <c r="E368"/>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="21"/>
-        <v>419279</v>
+        <v>621872</v>
       </c>
       <c r="D369"/>
       <c r="E369"/>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="21"/>
-        <v>520484</v>
+        <v>458803</v>
       </c>
       <c r="D370"/>
       <c r="E370"/>
@@ -19013,11 +19013,11 @@
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="21"/>
-        <v>358119</v>
+        <v>429030</v>
       </c>
       <c r="D372">
         <f t="shared" ca="1" si="21"/>
-        <v>430194</v>
+        <v>539874</v>
       </c>
       <c r="E372"/>
       <c r="F372"/>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="21"/>
-        <v>576334</v>
+        <v>380880</v>
       </c>
       <c r="D373"/>
       <c r="E373"/>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="21"/>
-        <v>454011</v>
+        <v>546522</v>
       </c>
       <c r="G374" s="35"/>
     </row>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="21"/>
-        <v>466926</v>
+        <v>452783</v>
       </c>
       <c r="G375" s="35"/>
     </row>
@@ -19072,7 +19072,7 @@
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="21"/>
-        <v>614893</v>
+        <v>601767</v>
       </c>
       <c r="G376" s="35"/>
     </row>
@@ -19085,7 +19085,7 @@
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="21"/>
-        <v>469586</v>
+        <v>468222</v>
       </c>
       <c r="G377" s="35"/>
     </row>
@@ -19098,7 +19098,7 @@
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="21"/>
-        <v>421014</v>
+        <v>368960</v>
       </c>
       <c r="G378" s="35"/>
     </row>
@@ -19111,7 +19111,7 @@
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="21"/>
-        <v>526139</v>
+        <v>405553</v>
       </c>
       <c r="G379" s="35"/>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="21"/>
-        <v>512666</v>
+        <v>507641</v>
       </c>
       <c r="G380" s="35"/>
     </row>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="C381">
         <f t="shared" ca="1" si="21"/>
-        <v>421133</v>
+        <v>606099</v>
       </c>
       <c r="G381" s="35"/>
     </row>
@@ -19150,7 +19150,7 @@
       </c>
       <c r="C382">
         <f t="shared" ca="1" si="21"/>
-        <v>364778</v>
+        <v>564907</v>
       </c>
       <c r="G382" s="35"/>
     </row>
@@ -19163,7 +19163,7 @@
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="21"/>
-        <v>531690</v>
+        <v>580589</v>
       </c>
       <c r="G383" s="35"/>
     </row>
@@ -19176,7 +19176,7 @@
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="21"/>
-        <v>516413</v>
+        <v>459696</v>
       </c>
       <c r="G384" s="35"/>
     </row>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="21"/>
-        <v>619391</v>
+        <v>422895</v>
       </c>
       <c r="G385" s="35"/>
     </row>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="21"/>
-        <v>546039</v>
+        <v>385242</v>
       </c>
       <c r="G386" s="35"/>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="C387" s="35">
         <f t="shared" ca="1" si="21"/>
-        <v>570062</v>
+        <v>621746</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="21"/>
-        <v>459166</v>
+        <v>580931</v>
       </c>
       <c r="G388" s="35"/>
     </row>
@@ -19240,7 +19240,7 @@
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="21"/>
-        <v>553997</v>
+        <v>391227</v>
       </c>
       <c r="G389" s="35"/>
     </row>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="21"/>
-        <v>451200</v>
+        <v>555530</v>
       </c>
       <c r="G390" s="35"/>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="21"/>
-        <v>552180</v>
+        <v>436367</v>
       </c>
       <c r="G391" s="35"/>
     </row>
@@ -19279,7 +19279,7 @@
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="21"/>
-        <v>372662</v>
+        <v>538963</v>
       </c>
       <c r="G392" s="35"/>
     </row>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="21"/>
-        <v>433419</v>
+        <v>590290</v>
       </c>
       <c r="G393" s="35"/>
     </row>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="21"/>
-        <v>593333</v>
+        <v>558470</v>
       </c>
       <c r="G394" s="35"/>
     </row>
@@ -19318,7 +19318,7 @@
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="21"/>
-        <v>376318</v>
+        <v>436358</v>
       </c>
       <c r="G395" s="35"/>
     </row>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="21"/>
-        <v>536347</v>
+        <v>618240</v>
       </c>
       <c r="G396" s="35"/>
     </row>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="21"/>
-        <v>591465</v>
+        <v>497178</v>
       </c>
       <c r="G397" s="35"/>
     </row>
@@ -19357,7 +19357,7 @@
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="21"/>
-        <v>371588</v>
+        <v>514592</v>
       </c>
       <c r="G398" s="35"/>
     </row>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="21"/>
-        <v>516030</v>
+        <v>495027</v>
       </c>
       <c r="G399" s="35"/>
     </row>
@@ -19383,7 +19383,7 @@
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="21"/>
-        <v>439465</v>
+        <v>401273</v>
       </c>
       <c r="G400" s="35"/>
     </row>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="21"/>
-        <v>351489</v>
+        <v>358686</v>
       </c>
       <c r="G401" s="35"/>
     </row>
@@ -19412,11 +19412,11 @@
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="21"/>
-        <v>484063</v>
+        <v>434901</v>
       </c>
       <c r="D403">
         <f t="shared" ca="1" si="21"/>
-        <v>479541</v>
+        <v>392803</v>
       </c>
       <c r="G403" s="35"/>
     </row>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="21"/>
-        <v>528361</v>
+        <v>574103</v>
       </c>
       <c r="G404" s="35"/>
     </row>
@@ -19442,7 +19442,7 @@
       </c>
       <c r="C405">
         <f t="shared" ref="C405:C432" ca="1" si="22">RANDBETWEEN(345000,624900)</f>
-        <v>592456</v>
+        <v>375392</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -19454,7 +19454,7 @@
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="22"/>
-        <v>615091</v>
+        <v>372896</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="22"/>
-        <v>483293</v>
+        <v>393683</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="C408">
         <f t="shared" ca="1" si="22"/>
-        <v>504401</v>
+        <v>569898</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="22"/>
-        <v>620679</v>
+        <v>574386</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="22"/>
-        <v>528774</v>
+        <v>389800</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="22"/>
-        <v>388342</v>
+        <v>480739</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="22"/>
-        <v>614501</v>
+        <v>390469</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -19538,7 +19538,7 @@
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="22"/>
-        <v>527890</v>
+        <v>503316</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="22"/>
-        <v>562564</v>
+        <v>518093</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="22"/>
-        <v>616222</v>
+        <v>538409</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -19574,7 +19574,7 @@
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="22"/>
-        <v>383518</v>
+        <v>354977</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="22"/>
-        <v>431962</v>
+        <v>383511</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="22"/>
-        <v>544557</v>
+        <v>453631</v>
       </c>
       <c r="G418" s="35"/>
     </row>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="22"/>
-        <v>395635</v>
+        <v>350693</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="22"/>
-        <v>402386</v>
+        <v>384656</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="22"/>
-        <v>361311</v>
+        <v>383919</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -19647,7 +19647,7 @@
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="22"/>
-        <v>559776</v>
+        <v>382707</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="22"/>
-        <v>545782</v>
+        <v>482627</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -19671,7 +19671,7 @@
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="22"/>
-        <v>490290</v>
+        <v>602498</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -19683,7 +19683,7 @@
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="22"/>
-        <v>442433</v>
+        <v>548712</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="22"/>
-        <v>368691</v>
+        <v>619598</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="22"/>
-        <v>605740</v>
+        <v>548724</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="22"/>
-        <v>382796</v>
+        <v>435412</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="22"/>
-        <v>359495</v>
+        <v>616329</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="22"/>
-        <v>548368</v>
+        <v>461536</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="22"/>
-        <v>610256</v>
+        <v>472164</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="22"/>
-        <v>388591</v>
+        <v>486683</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -19779,11 +19779,11 @@
       </c>
       <c r="C434">
         <f t="shared" ref="C434:D463" ca="1" si="23">RANDBETWEEN(345000,624900)</f>
-        <v>477152</v>
+        <v>456914</v>
       </c>
       <c r="D434">
         <f t="shared" ca="1" si="23"/>
-        <v>572355</v>
+        <v>553117</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="23"/>
-        <v>358667</v>
+        <v>583756</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -19807,7 +19807,7 @@
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="23"/>
-        <v>562387</v>
+        <v>586926</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="23"/>
-        <v>524547</v>
+        <v>451869</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="23"/>
-        <v>394357</v>
+        <v>569631</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -19843,7 +19843,7 @@
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="23"/>
-        <v>534967</v>
+        <v>394952</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -19855,7 +19855,7 @@
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="23"/>
-        <v>429880</v>
+        <v>615221</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -19867,7 +19867,7 @@
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="23"/>
-        <v>546443</v>
+        <v>360184</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -19879,7 +19879,7 @@
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="23"/>
-        <v>531170</v>
+        <v>381093</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="23"/>
-        <v>544888</v>
+        <v>603180</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="23"/>
-        <v>521251</v>
+        <v>574499</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -19915,7 +19915,7 @@
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="23"/>
-        <v>593447</v>
+        <v>528729</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="23"/>
-        <v>563820</v>
+        <v>449064</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="23"/>
-        <v>584155</v>
+        <v>543783</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="23"/>
-        <v>622393</v>
+        <v>485213</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -19963,7 +19963,7 @@
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="23"/>
-        <v>358689</v>
+        <v>623045</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="23"/>
-        <v>352569</v>
+        <v>463272</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="C451">
         <f t="shared" ca="1" si="23"/>
-        <v>430744</v>
+        <v>495149</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="23"/>
-        <v>492658</v>
+        <v>501115</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="23"/>
-        <v>363726</v>
+        <v>512484</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="23"/>
-        <v>427973</v>
+        <v>355825</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -20035,7 +20035,7 @@
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="23"/>
-        <v>527458</v>
+        <v>606993</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -20047,7 +20047,7 @@
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="23"/>
-        <v>517613</v>
+        <v>446957</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="23"/>
-        <v>526740</v>
+        <v>547392</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="23"/>
-        <v>590877</v>
+        <v>557583</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -20083,7 +20083,7 @@
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="23"/>
-        <v>463791</v>
+        <v>441527</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -20095,7 +20095,7 @@
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="23"/>
-        <v>565430</v>
+        <v>480281</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -20107,7 +20107,7 @@
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="23"/>
-        <v>530661</v>
+        <v>616246</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -20119,7 +20119,7 @@
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="23"/>
-        <v>371476</v>
+        <v>537429</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="C463">
         <f t="shared" ca="1" si="23"/>
-        <v>356100</v>
+        <v>407453</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -20143,11 +20143,11 @@
       </c>
       <c r="C465">
         <f t="shared" ref="C465:D525" ca="1" si="24">RANDBETWEEN(345000,624900)</f>
-        <v>508094</v>
+        <v>384234</v>
       </c>
       <c r="D465">
         <f t="shared" ca="1" si="24"/>
-        <v>451489</v>
+        <v>460266</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -20159,7 +20159,7 @@
       </c>
       <c r="C466">
         <f t="shared" ca="1" si="24"/>
-        <v>562607</v>
+        <v>358432</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -20171,7 +20171,7 @@
       </c>
       <c r="C467">
         <f t="shared" ca="1" si="24"/>
-        <v>530280</v>
+        <v>391368</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -20183,7 +20183,7 @@
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="24"/>
-        <v>480802</v>
+        <v>542743</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="24"/>
-        <v>530021</v>
+        <v>392296</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -20207,7 +20207,7 @@
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="24"/>
-        <v>559138</v>
+        <v>604506</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -20219,7 +20219,7 @@
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="24"/>
-        <v>479847</v>
+        <v>509212</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -20231,7 +20231,7 @@
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="24"/>
-        <v>609008</v>
+        <v>378195</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="24"/>
-        <v>537051</v>
+        <v>390885</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -20255,7 +20255,7 @@
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="24"/>
-        <v>506765</v>
+        <v>623719</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -20267,7 +20267,7 @@
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="24"/>
-        <v>552579</v>
+        <v>560286</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="C476">
         <f t="shared" ca="1" si="24"/>
-        <v>498620</v>
+        <v>450447</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -20291,7 +20291,7 @@
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="24"/>
-        <v>606057</v>
+        <v>550506</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -20303,7 +20303,7 @@
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="24"/>
-        <v>541656</v>
+        <v>409412</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="24"/>
-        <v>475047</v>
+        <v>599847</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="24"/>
-        <v>449076</v>
+        <v>385170</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -20339,7 +20339,7 @@
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="24"/>
-        <v>382181</v>
+        <v>616437</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -20351,7 +20351,7 @@
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="24"/>
-        <v>610640</v>
+        <v>363382</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="24"/>
-        <v>395309</v>
+        <v>458671</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="24"/>
-        <v>466276</v>
+        <v>587241</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -20387,7 +20387,7 @@
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="24"/>
-        <v>513085</v>
+        <v>358188</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="24"/>
-        <v>605884</v>
+        <v>505838</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="24"/>
-        <v>487191</v>
+        <v>609008</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="24"/>
-        <v>576392</v>
+        <v>572259</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -20435,7 +20435,7 @@
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="24"/>
-        <v>411100</v>
+        <v>453216</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -20447,7 +20447,7 @@
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="24"/>
-        <v>504101</v>
+        <v>482669</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="24"/>
-        <v>561775</v>
+        <v>518449</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="24"/>
-        <v>568011</v>
+        <v>431306</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -20483,7 +20483,7 @@
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="24"/>
-        <v>588644</v>
+        <v>422514</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="24"/>
-        <v>595599</v>
+        <v>536529</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -20507,11 +20507,11 @@
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="24"/>
-        <v>504095</v>
+        <v>426713</v>
       </c>
       <c r="D496">
         <f t="shared" ca="1" si="24"/>
-        <v>553416</v>
+        <v>388021</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="24"/>
-        <v>356978</v>
+        <v>395602</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -20535,7 +20535,7 @@
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="24"/>
-        <v>393739</v>
+        <v>448568</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="24"/>
-        <v>425799</v>
+        <v>415736</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="24"/>
-        <v>399919</v>
+        <v>428339</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -20571,7 +20571,7 @@
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="24"/>
-        <v>389505</v>
+        <v>481063</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="24"/>
-        <v>404847</v>
+        <v>555090</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="24"/>
-        <v>495502</v>
+        <v>543952</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -20607,7 +20607,7 @@
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="24"/>
-        <v>378589</v>
+        <v>461674</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="24"/>
-        <v>553407</v>
+        <v>586141</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="C506">
         <f t="shared" ca="1" si="24"/>
-        <v>608857</v>
+        <v>391759</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="24"/>
-        <v>490313</v>
+        <v>346836</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="24"/>
-        <v>369071</v>
+        <v>538798</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -20667,7 +20667,7 @@
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="24"/>
-        <v>364460</v>
+        <v>617985</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="24"/>
-        <v>480850</v>
+        <v>388477</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="24"/>
-        <v>607756</v>
+        <v>425318</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="24"/>
-        <v>581373</v>
+        <v>503435</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -20715,7 +20715,7 @@
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="24"/>
-        <v>522663</v>
+        <v>387988</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="C514">
         <f t="shared" ca="1" si="24"/>
-        <v>443954</v>
+        <v>562513</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="C515">
         <f t="shared" ca="1" si="24"/>
-        <v>380184</v>
+        <v>503235</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="C516">
         <f t="shared" ca="1" si="24"/>
-        <v>602047</v>
+        <v>367390</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -20763,7 +20763,7 @@
       </c>
       <c r="C517">
         <f t="shared" ca="1" si="24"/>
-        <v>560287</v>
+        <v>363092</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="C518">
         <f t="shared" ca="1" si="24"/>
-        <v>420225</v>
+        <v>596489</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="C519">
         <f t="shared" ca="1" si="24"/>
-        <v>540474</v>
+        <v>359069</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -20799,7 +20799,7 @@
       </c>
       <c r="C520">
         <f t="shared" ca="1" si="24"/>
-        <v>467813</v>
+        <v>394148</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -20811,7 +20811,7 @@
       </c>
       <c r="C521">
         <f t="shared" ca="1" si="24"/>
-        <v>365681</v>
+        <v>429825</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="C522">
         <f t="shared" ca="1" si="24"/>
-        <v>357992</v>
+        <v>379891</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="C523">
         <f t="shared" ca="1" si="24"/>
-        <v>445524</v>
+        <v>564686</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="C524">
         <f t="shared" ca="1" si="24"/>
-        <v>378053</v>
+        <v>548211</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -20859,7 +20859,7 @@
       </c>
       <c r="C525">
         <f t="shared" ca="1" si="24"/>
-        <v>409412</v>
+        <v>408291</v>
       </c>
     </row>
     <row r="527" spans="1:4" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="D528">
         <f t="shared" ref="D528:D548" ca="1" si="25">RANDBETWEEN(345000,624900)</f>
-        <v>529526</v>
+        <v>574020</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="D529">
         <f t="shared" ca="1" si="25"/>
-        <v>537431</v>
+        <v>395407</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="D530">
         <f t="shared" ca="1" si="25"/>
-        <v>479923</v>
+        <v>481656</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="D531">
         <f t="shared" ca="1" si="25"/>
-        <v>490720</v>
+        <v>420827</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="D532">
         <f t="shared" ca="1" si="25"/>
-        <v>421999</v>
+        <v>597558</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="D533">
         <f t="shared" ca="1" si="25"/>
-        <v>407969</v>
+        <v>526560</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -20948,7 +20948,7 @@
       </c>
       <c r="D534">
         <f t="shared" ca="1" si="25"/>
-        <v>456725</v>
+        <v>486742</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="D535">
         <f t="shared" ca="1" si="25"/>
-        <v>554908</v>
+        <v>361474</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -20972,7 +20972,7 @@
       </c>
       <c r="D536">
         <f t="shared" ca="1" si="25"/>
-        <v>486171</v>
+        <v>371316</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="D537">
         <f t="shared" ca="1" si="25"/>
-        <v>442435</v>
+        <v>576982</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="D539">
         <f t="shared" ca="1" si="25"/>
-        <v>494479</v>
+        <v>602610</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="D540">
         <f t="shared" ca="1" si="25"/>
-        <v>424753</v>
+        <v>366725</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="D541">
         <f t="shared" ca="1" si="25"/>
-        <v>545409</v>
+        <v>347267</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -21032,7 +21032,7 @@
       </c>
       <c r="D542">
         <f t="shared" ca="1" si="25"/>
-        <v>548769</v>
+        <v>615738</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="D543">
         <f t="shared" ca="1" si="25"/>
-        <v>539237</v>
+        <v>382451</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="D544">
         <f t="shared" ca="1" si="25"/>
-        <v>563477</v>
+        <v>420860</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="D545">
         <f t="shared" ca="1" si="25"/>
-        <v>599311</v>
+        <v>365364</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="D546">
         <f t="shared" ca="1" si="25"/>
-        <v>478348</v>
+        <v>391399</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -21092,7 +21092,7 @@
       </c>
       <c r="D547">
         <f t="shared" ca="1" si="25"/>
-        <v>425120</v>
+        <v>533949</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="D548">
         <f t="shared" ca="1" si="25"/>
-        <v>367581</v>
+        <v>508412</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="D550">
         <f t="shared" ref="D550:D559" ca="1" si="26">RANDBETWEEN(345000,624900)</f>
-        <v>540179</v>
+        <v>522925</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -21128,7 +21128,7 @@
       </c>
       <c r="D551">
         <f t="shared" ca="1" si="26"/>
-        <v>461790</v>
+        <v>452189</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -21140,7 +21140,7 @@
       </c>
       <c r="D552">
         <f t="shared" ca="1" si="26"/>
-        <v>465892</v>
+        <v>578621</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="D553">
         <f t="shared" ca="1" si="26"/>
-        <v>507434</v>
+        <v>403616</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="D554">
         <f t="shared" ca="1" si="26"/>
-        <v>417873</v>
+        <v>582413</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="D555">
         <f t="shared" ca="1" si="26"/>
-        <v>466568</v>
+        <v>547078</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -21188,7 +21188,7 @@
       </c>
       <c r="D556">
         <f t="shared" ca="1" si="26"/>
-        <v>556530</v>
+        <v>473981</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="D557">
         <f t="shared" ca="1" si="26"/>
-        <v>433619</v>
+        <v>470263</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="D558">
         <f t="shared" ca="1" si="26"/>
-        <v>498290</v>
+        <v>351811</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="D559">
         <f t="shared" ca="1" si="26"/>
-        <v>529403</v>
+        <v>576912</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="D561">
         <f t="shared" ref="D561:D570" ca="1" si="27">RANDBETWEEN(345000,624900)</f>
-        <v>443094</v>
+        <v>536542</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="D562">
         <f t="shared" ca="1" si="27"/>
-        <v>586698</v>
+        <v>416861</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -21260,7 +21260,7 @@
       </c>
       <c r="D563">
         <f t="shared" ca="1" si="27"/>
-        <v>484558</v>
+        <v>436092</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -21272,7 +21272,7 @@
       </c>
       <c r="D564">
         <f t="shared" ca="1" si="27"/>
-        <v>502811</v>
+        <v>367589</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -21284,7 +21284,7 @@
       </c>
       <c r="D565">
         <f t="shared" ca="1" si="27"/>
-        <v>481990</v>
+        <v>548737</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="D566">
         <f t="shared" ca="1" si="27"/>
-        <v>594402</v>
+        <v>481418</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="D567">
         <f t="shared" ca="1" si="27"/>
-        <v>480841</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -21320,7 +21320,7 @@
       </c>
       <c r="D568">
         <f t="shared" ca="1" si="27"/>
-        <v>432808</v>
+        <v>347502</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -21332,7 +21332,7 @@
       </c>
       <c r="D569">
         <f t="shared" ca="1" si="27"/>
-        <v>602596</v>
+        <v>579986</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="D570">
         <f t="shared" ca="1" si="27"/>
-        <v>544798</v>
+        <v>595824</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="D572">
         <f t="shared" ref="D572:D581" ca="1" si="28">RANDBETWEEN(345000,624900)</f>
-        <v>414110</v>
+        <v>435400</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="D573">
         <f t="shared" ca="1" si="28"/>
-        <v>483838</v>
+        <v>405260</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -21380,7 +21380,7 @@
       </c>
       <c r="D574">
         <f t="shared" ca="1" si="28"/>
-        <v>589966</v>
+        <v>355845</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="D575">
         <f t="shared" ca="1" si="28"/>
-        <v>444518</v>
+        <v>606818</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="D576">
         <f t="shared" ca="1" si="28"/>
-        <v>458825</v>
+        <v>595190</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="D577">
         <f t="shared" ca="1" si="28"/>
-        <v>446781</v>
+        <v>446461</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="D578">
         <f t="shared" ca="1" si="28"/>
-        <v>390858</v>
+        <v>465325</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -21440,7 +21440,7 @@
       </c>
       <c r="D579">
         <f t="shared" ca="1" si="28"/>
-        <v>362352</v>
+        <v>484255</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="D580">
         <f t="shared" ca="1" si="28"/>
-        <v>487360</v>
+        <v>492600</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -21464,7 +21464,7 @@
       </c>
       <c r="D581">
         <f t="shared" ca="1" si="28"/>
-        <v>510477</v>
+        <v>604821</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="D583">
         <f t="shared" ref="D583:D592" ca="1" si="29">RANDBETWEEN(345000,624900)</f>
-        <v>450313</v>
+        <v>366464</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="D584">
         <f t="shared" ca="1" si="29"/>
-        <v>587154</v>
+        <v>499647</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -21500,7 +21500,7 @@
       </c>
       <c r="D585">
         <f t="shared" ca="1" si="29"/>
-        <v>531259</v>
+        <v>476578</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -21512,7 +21512,7 @@
       </c>
       <c r="D586">
         <f t="shared" ca="1" si="29"/>
-        <v>445285</v>
+        <v>370459</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -21524,7 +21524,7 @@
       </c>
       <c r="D587">
         <f t="shared" ca="1" si="29"/>
-        <v>515363</v>
+        <v>435848</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="D588">
         <f t="shared" ca="1" si="29"/>
-        <v>453949</v>
+        <v>431953</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="D589">
         <f t="shared" ca="1" si="29"/>
-        <v>348483</v>
+        <v>613472</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="D590">
         <f t="shared" ca="1" si="29"/>
-        <v>492337</v>
+        <v>474552</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="D591">
         <f t="shared" ca="1" si="29"/>
-        <v>561212</v>
+        <v>552706</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -21584,7 +21584,7 @@
       </c>
       <c r="D592">
         <f t="shared" ca="1" si="29"/>
-        <v>471174</v>
+        <v>555403</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="D594">
         <f t="shared" ref="D594:D603" ca="1" si="30">RANDBETWEEN(345000,624900)</f>
-        <v>561007</v>
+        <v>591403</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -21608,7 +21608,7 @@
       </c>
       <c r="D595">
         <f t="shared" ca="1" si="30"/>
-        <v>402571</v>
+        <v>504846</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -21620,7 +21620,7 @@
       </c>
       <c r="D596">
         <f t="shared" ca="1" si="30"/>
-        <v>348224</v>
+        <v>379782</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="D597">
         <f t="shared" ca="1" si="30"/>
-        <v>452590</v>
+        <v>554216</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="D598">
         <f t="shared" ca="1" si="30"/>
-        <v>545601</v>
+        <v>430214</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="D599">
         <f t="shared" ca="1" si="30"/>
-        <v>378254</v>
+        <v>618947</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="D600">
         <f t="shared" ca="1" si="30"/>
-        <v>593846</v>
+        <v>482700</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="D601">
         <f t="shared" ca="1" si="30"/>
-        <v>564438</v>
+        <v>512057</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="D602">
         <f t="shared" ca="1" si="30"/>
-        <v>555574</v>
+        <v>393094</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -21704,7 +21704,7 @@
       </c>
       <c r="D603">
         <f t="shared" ca="1" si="30"/>
-        <v>389510</v>
+        <v>544867</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -21716,11 +21716,11 @@
       </c>
       <c r="C606">
         <f t="shared" ref="C606:D669" ca="1" si="31">RANDBETWEEN(345000,624900)</f>
-        <v>606171</v>
+        <v>384985</v>
       </c>
       <c r="D606">
         <f t="shared" ca="1" si="31"/>
-        <v>570036</v>
+        <v>571911</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -21732,7 +21732,7 @@
       </c>
       <c r="C607">
         <f t="shared" ca="1" si="31"/>
-        <v>402585</v>
+        <v>508725</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="C608">
         <f t="shared" ca="1" si="31"/>
-        <v>561801</v>
+        <v>536449</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="C609">
         <f t="shared" ca="1" si="31"/>
-        <v>484374</v>
+        <v>388348</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="C610">
         <f t="shared" ca="1" si="31"/>
-        <v>398279</v>
+        <v>466984</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="C611">
         <f t="shared" ca="1" si="31"/>
-        <v>624343</v>
+        <v>411055</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="C612">
         <f t="shared" ca="1" si="31"/>
-        <v>452001</v>
+        <v>498876</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -21804,7 +21804,7 @@
       </c>
       <c r="C613">
         <f t="shared" ca="1" si="31"/>
-        <v>433382</v>
+        <v>496262</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="C614">
         <f t="shared" ca="1" si="31"/>
-        <v>443179</v>
+        <v>457744</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -21828,7 +21828,7 @@
       </c>
       <c r="C615">
         <f t="shared" ca="1" si="31"/>
-        <v>360231</v>
+        <v>488960</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -21840,7 +21840,7 @@
       </c>
       <c r="C616">
         <f t="shared" ca="1" si="31"/>
-        <v>389186</v>
+        <v>577048</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="C617">
         <f t="shared" ca="1" si="31"/>
-        <v>615698</v>
+        <v>552092</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="C618">
         <f t="shared" ca="1" si="31"/>
-        <v>412783</v>
+        <v>600848</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="C619">
         <f t="shared" ca="1" si="31"/>
-        <v>445856</v>
+        <v>620977</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="C620">
         <f t="shared" ca="1" si="31"/>
-        <v>606360</v>
+        <v>455242</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -21900,7 +21900,7 @@
       </c>
       <c r="C621">
         <f t="shared" ca="1" si="31"/>
-        <v>364485</v>
+        <v>390076</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="C622">
         <f t="shared" ca="1" si="31"/>
-        <v>573266</v>
+        <v>607647</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -21924,7 +21924,7 @@
       </c>
       <c r="C623">
         <f t="shared" ca="1" si="31"/>
-        <v>588240</v>
+        <v>620862</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -21936,7 +21936,7 @@
       </c>
       <c r="C624">
         <f t="shared" ca="1" si="31"/>
-        <v>438392</v>
+        <v>457272</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="C625">
         <f t="shared" ca="1" si="31"/>
-        <v>376954</v>
+        <v>351056</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -21960,7 +21960,7 @@
       </c>
       <c r="C626">
         <f t="shared" ca="1" si="31"/>
-        <v>434204</v>
+        <v>346961</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="C627">
         <f t="shared" ca="1" si="31"/>
-        <v>445726</v>
+        <v>491252</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -21984,7 +21984,7 @@
       </c>
       <c r="C628">
         <f t="shared" ca="1" si="31"/>
-        <v>483135</v>
+        <v>441272</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="C629">
         <f t="shared" ca="1" si="31"/>
-        <v>514630</v>
+        <v>376596</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -22008,7 +22008,7 @@
       </c>
       <c r="C630">
         <f t="shared" ca="1" si="31"/>
-        <v>452326</v>
+        <v>384938</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -22020,7 +22020,7 @@
       </c>
       <c r="C631">
         <f t="shared" ca="1" si="31"/>
-        <v>402087</v>
+        <v>354089</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="C632">
         <f t="shared" ca="1" si="31"/>
-        <v>534583</v>
+        <v>590880</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="C633">
         <f t="shared" ca="1" si="31"/>
-        <v>532911</v>
+        <v>379531</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -22056,7 +22056,7 @@
       </c>
       <c r="C634">
         <f t="shared" ca="1" si="31"/>
-        <v>411185</v>
+        <v>507200</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -22068,7 +22068,7 @@
       </c>
       <c r="C635">
         <f t="shared" ca="1" si="31"/>
-        <v>354816</v>
+        <v>566447</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -22080,11 +22080,11 @@
       </c>
       <c r="C637">
         <f t="shared" ca="1" si="31"/>
-        <v>421497</v>
+        <v>583747</v>
       </c>
       <c r="D637">
         <f t="shared" ca="1" si="31"/>
-        <v>477652</v>
+        <v>509932</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="C638">
         <f t="shared" ca="1" si="31"/>
-        <v>392705</v>
+        <v>354119</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="C639">
         <f t="shared" ca="1" si="31"/>
-        <v>355982</v>
+        <v>436065</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="C640">
         <f t="shared" ca="1" si="31"/>
-        <v>491019</v>
+        <v>354977</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="C641">
         <f t="shared" ca="1" si="31"/>
-        <v>615136</v>
+        <v>606911</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="C642">
         <f t="shared" ca="1" si="31"/>
-        <v>511100</v>
+        <v>535665</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="C643">
         <f t="shared" ca="1" si="31"/>
-        <v>621555</v>
+        <v>439459</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="C644">
         <f t="shared" ca="1" si="31"/>
-        <v>391129</v>
+        <v>477121</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="C645">
         <f t="shared" ca="1" si="31"/>
-        <v>568586</v>
+        <v>351334</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -22192,7 +22192,7 @@
       </c>
       <c r="C646">
         <f t="shared" ca="1" si="31"/>
-        <v>607282</v>
+        <v>426813</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="C647">
         <f t="shared" ca="1" si="31"/>
-        <v>358117</v>
+        <v>505649</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="C648">
         <f t="shared" ca="1" si="31"/>
-        <v>400653</v>
+        <v>576653</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="C649">
         <f t="shared" ca="1" si="31"/>
-        <v>516331</v>
+        <v>491176</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -22240,7 +22240,7 @@
       </c>
       <c r="C650">
         <f t="shared" ca="1" si="31"/>
-        <v>522038</v>
+        <v>433872</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="C651">
         <f t="shared" ca="1" si="31"/>
-        <v>612037</v>
+        <v>589439</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="C652">
         <f t="shared" ca="1" si="31"/>
-        <v>368227</v>
+        <v>374122</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="C653">
         <f t="shared" ca="1" si="31"/>
-        <v>478345</v>
+        <v>557724</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="C654">
         <f t="shared" ca="1" si="31"/>
-        <v>370588</v>
+        <v>482957</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="C655">
         <f t="shared" ca="1" si="31"/>
-        <v>427672</v>
+        <v>539331</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="C656">
         <f t="shared" ca="1" si="31"/>
-        <v>466409</v>
+        <v>416398</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -22324,7 +22324,7 @@
       </c>
       <c r="C657">
         <f t="shared" ca="1" si="31"/>
-        <v>502571</v>
+        <v>362374</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -22336,7 +22336,7 @@
       </c>
       <c r="C658">
         <f t="shared" ca="1" si="31"/>
-        <v>504066</v>
+        <v>484673</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="C659">
         <f t="shared" ca="1" si="31"/>
-        <v>372706</v>
+        <v>499438</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="C660">
         <f t="shared" ca="1" si="31"/>
-        <v>541342</v>
+        <v>374449</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="C661">
         <f t="shared" ca="1" si="31"/>
-        <v>574255</v>
+        <v>617014</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -22384,7 +22384,7 @@
       </c>
       <c r="C662">
         <f t="shared" ca="1" si="31"/>
-        <v>570877</v>
+        <v>597598</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="C663">
         <f t="shared" ca="1" si="31"/>
-        <v>574407</v>
+        <v>578485</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="C664">
         <f t="shared" ca="1" si="31"/>
-        <v>454924</v>
+        <v>523440</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -22420,7 +22420,7 @@
       </c>
       <c r="C665">
         <f t="shared" ca="1" si="31"/>
-        <v>533066</v>
+        <v>518308</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="C666">
         <f t="shared" ca="1" si="31"/>
-        <v>618674</v>
+        <v>386053</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -22444,11 +22444,11 @@
       </c>
       <c r="C668">
         <f t="shared" ca="1" si="31"/>
-        <v>378775</v>
+        <v>609847</v>
       </c>
       <c r="D668">
         <f t="shared" ca="1" si="31"/>
-        <v>514557</v>
+        <v>572209</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -22460,7 +22460,7 @@
       </c>
       <c r="C669">
         <f t="shared" ca="1" si="31"/>
-        <v>480383</v>
+        <v>564551</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -22472,7 +22472,7 @@
       </c>
       <c r="C670">
         <f t="shared" ref="C670:C697" ca="1" si="32">RANDBETWEEN(345000,624900)</f>
-        <v>589110</v>
+        <v>433928</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -22484,7 +22484,7 @@
       </c>
       <c r="C671">
         <f t="shared" ca="1" si="32"/>
-        <v>579384</v>
+        <v>460856</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="C672">
         <f t="shared" ca="1" si="32"/>
-        <v>565530</v>
+        <v>592262</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="C673">
         <f t="shared" ca="1" si="32"/>
-        <v>357498</v>
+        <v>467599</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="C674">
         <f t="shared" ca="1" si="32"/>
-        <v>517639</v>
+        <v>610797</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -22532,7 +22532,7 @@
       </c>
       <c r="C675">
         <f t="shared" ca="1" si="32"/>
-        <v>353458</v>
+        <v>581119</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="C676">
         <f t="shared" ca="1" si="32"/>
-        <v>433159</v>
+        <v>361164</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="C677">
         <f t="shared" ca="1" si="32"/>
-        <v>505679</v>
+        <v>619005</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="C678">
         <f t="shared" ca="1" si="32"/>
-        <v>448406</v>
+        <v>473794</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="C679">
         <f t="shared" ca="1" si="32"/>
-        <v>443157</v>
+        <v>409633</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="C680">
         <f t="shared" ca="1" si="32"/>
-        <v>352989</v>
+        <v>348881</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -22604,7 +22604,7 @@
       </c>
       <c r="C681">
         <f t="shared" ca="1" si="32"/>
-        <v>366171</v>
+        <v>367936</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -22616,7 +22616,7 @@
       </c>
       <c r="C682">
         <f t="shared" ca="1" si="32"/>
-        <v>585275</v>
+        <v>432101</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -22628,7 +22628,7 @@
       </c>
       <c r="C683">
         <f t="shared" ca="1" si="32"/>
-        <v>518038</v>
+        <v>486888</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="C684">
         <f t="shared" ca="1" si="32"/>
-        <v>363341</v>
+        <v>385712</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="C685">
         <f t="shared" ca="1" si="32"/>
-        <v>408954</v>
+        <v>388805</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="C686">
         <f t="shared" ca="1" si="32"/>
-        <v>469836</v>
+        <v>484962</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="C687">
         <f t="shared" ca="1" si="32"/>
-        <v>598750</v>
+        <v>463324</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="C688">
         <f t="shared" ca="1" si="32"/>
-        <v>545261</v>
+        <v>621747</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="C689">
         <f t="shared" ca="1" si="32"/>
-        <v>355763</v>
+        <v>504508</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="C690">
         <f t="shared" ca="1" si="32"/>
-        <v>427655</v>
+        <v>530142</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="C691">
         <f t="shared" ca="1" si="32"/>
-        <v>403489</v>
+        <v>606458</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="C692">
         <f t="shared" ca="1" si="32"/>
-        <v>506517</v>
+        <v>555608</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -22748,7 +22748,7 @@
       </c>
       <c r="C693">
         <f t="shared" ca="1" si="32"/>
-        <v>553514</v>
+        <v>482207</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="C694">
         <f t="shared" ca="1" si="32"/>
-        <v>370656</v>
+        <v>569475</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -22772,7 +22772,7 @@
       </c>
       <c r="C695">
         <f t="shared" ca="1" si="32"/>
-        <v>575461</v>
+        <v>569283</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="C696">
         <f t="shared" ca="1" si="32"/>
-        <v>475022</v>
+        <v>478245</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="C697">
         <f t="shared" ca="1" si="32"/>
-        <v>456909</v>
+        <v>525588</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -22808,11 +22808,11 @@
       </c>
       <c r="C699">
         <f t="shared" ref="C699:D728" ca="1" si="33">RANDBETWEEN(345000,624900)</f>
-        <v>421263</v>
+        <v>477704</v>
       </c>
       <c r="D699">
         <f t="shared" ca="1" si="33"/>
-        <v>400741</v>
+        <v>559276</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="C700">
         <f t="shared" ca="1" si="33"/>
-        <v>611667</v>
+        <v>389725</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
@@ -22836,7 +22836,7 @@
       </c>
       <c r="C701">
         <f t="shared" ca="1" si="33"/>
-        <v>581635</v>
+        <v>366394</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="C702">
         <f t="shared" ca="1" si="33"/>
-        <v>416292</v>
+        <v>461036</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -22860,7 +22860,7 @@
       </c>
       <c r="C703">
         <f t="shared" ca="1" si="33"/>
-        <v>354147</v>
+        <v>545912</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="C704">
         <f t="shared" ca="1" si="33"/>
-        <v>409346</v>
+        <v>601145</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="C705">
         <f t="shared" ca="1" si="33"/>
-        <v>589268</v>
+        <v>471744</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
@@ -22896,7 +22896,7 @@
       </c>
       <c r="C706">
         <f t="shared" ca="1" si="33"/>
-        <v>506038</v>
+        <v>527694</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -22908,7 +22908,7 @@
       </c>
       <c r="C707">
         <f t="shared" ca="1" si="33"/>
-        <v>400713</v>
+        <v>607407</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="C708">
         <f t="shared" ca="1" si="33"/>
-        <v>604017</v>
+        <v>574932</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -22932,7 +22932,7 @@
       </c>
       <c r="C709">
         <f t="shared" ca="1" si="33"/>
-        <v>452040</v>
+        <v>355716</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="C710">
         <f t="shared" ca="1" si="33"/>
-        <v>480705</v>
+        <v>465976</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="C711">
         <f t="shared" ca="1" si="33"/>
-        <v>566563</v>
+        <v>416282</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="C712">
         <f t="shared" ca="1" si="33"/>
-        <v>530928</v>
+        <v>486548</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
@@ -22980,7 +22980,7 @@
       </c>
       <c r="C713">
         <f t="shared" ca="1" si="33"/>
-        <v>458289</v>
+        <v>568233</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="C714">
         <f t="shared" ca="1" si="33"/>
-        <v>583720</v>
+        <v>573862</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -23004,7 +23004,7 @@
       </c>
       <c r="C715">
         <f t="shared" ca="1" si="33"/>
-        <v>598462</v>
+        <v>509937</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="C716">
         <f t="shared" ca="1" si="33"/>
-        <v>474993</v>
+        <v>387423</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="C717">
         <f t="shared" ca="1" si="33"/>
-        <v>350304</v>
+        <v>393407</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -23040,7 +23040,7 @@
       </c>
       <c r="C718">
         <f t="shared" ca="1" si="33"/>
-        <v>578561</v>
+        <v>529258</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -23052,7 +23052,7 @@
       </c>
       <c r="C719">
         <f t="shared" ca="1" si="33"/>
-        <v>607209</v>
+        <v>541790</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="C720">
         <f t="shared" ca="1" si="33"/>
-        <v>472233</v>
+        <v>563419</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="C721">
         <f t="shared" ca="1" si="33"/>
-        <v>467821</v>
+        <v>385533</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
@@ -23088,7 +23088,7 @@
       </c>
       <c r="C722">
         <f t="shared" ca="1" si="33"/>
-        <v>572348</v>
+        <v>594315</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
@@ -23100,7 +23100,7 @@
       </c>
       <c r="C723">
         <f t="shared" ca="1" si="33"/>
-        <v>445439</v>
+        <v>542121</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="C724">
         <f t="shared" ca="1" si="33"/>
-        <v>607707</v>
+        <v>476029</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -23124,7 +23124,7 @@
       </c>
       <c r="C725">
         <f t="shared" ca="1" si="33"/>
-        <v>445395</v>
+        <v>493902</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -23136,7 +23136,7 @@
       </c>
       <c r="C726">
         <f t="shared" ca="1" si="33"/>
-        <v>417487</v>
+        <v>472049</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
@@ -23148,7 +23148,7 @@
       </c>
       <c r="C727">
         <f t="shared" ca="1" si="33"/>
-        <v>450914</v>
+        <v>402174</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="C728">
         <f t="shared" ca="1" si="33"/>
-        <v>467184</v>
+        <v>352208</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
@@ -23172,11 +23172,11 @@
       </c>
       <c r="C730">
         <f t="shared" ref="C730:D790" ca="1" si="34">RANDBETWEEN(345000,624900)</f>
-        <v>387061</v>
+        <v>607945</v>
       </c>
       <c r="D730">
         <f t="shared" ca="1" si="34"/>
-        <v>396952</v>
+        <v>589772</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
@@ -23188,7 +23188,7 @@
       </c>
       <c r="C731">
         <f t="shared" ca="1" si="34"/>
-        <v>621912</v>
+        <v>468413</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -23200,7 +23200,7 @@
       </c>
       <c r="C732">
         <f t="shared" ca="1" si="34"/>
-        <v>517545</v>
+        <v>410066</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
@@ -23212,7 +23212,7 @@
       </c>
       <c r="C733">
         <f t="shared" ca="1" si="34"/>
-        <v>499451</v>
+        <v>473869</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="C734">
         <f t="shared" ca="1" si="34"/>
-        <v>549775</v>
+        <v>555734</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
@@ -23236,7 +23236,7 @@
       </c>
       <c r="C735">
         <f t="shared" ca="1" si="34"/>
-        <v>536560</v>
+        <v>562732</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
@@ -23248,7 +23248,7 @@
       </c>
       <c r="C736">
         <f t="shared" ca="1" si="34"/>
-        <v>371528</v>
+        <v>399218</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -23260,7 +23260,7 @@
       </c>
       <c r="C737">
         <f t="shared" ca="1" si="34"/>
-        <v>345015</v>
+        <v>452832</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="C738">
         <f t="shared" ca="1" si="34"/>
-        <v>487088</v>
+        <v>406595</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
@@ -23284,7 +23284,7 @@
       </c>
       <c r="C739">
         <f t="shared" ca="1" si="34"/>
-        <v>569843</v>
+        <v>470259</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -23296,7 +23296,7 @@
       </c>
       <c r="C740">
         <f t="shared" ca="1" si="34"/>
-        <v>493219</v>
+        <v>419577</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="C741">
         <f t="shared" ca="1" si="34"/>
-        <v>412512</v>
+        <v>374505</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="C742">
         <f t="shared" ca="1" si="34"/>
-        <v>395712</v>
+        <v>396764</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="C743">
         <f t="shared" ca="1" si="34"/>
-        <v>558344</v>
+        <v>461473</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="C744">
         <f t="shared" ca="1" si="34"/>
-        <v>484194</v>
+        <v>473550</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="C745">
         <f t="shared" ca="1" si="34"/>
-        <v>354009</v>
+        <v>553924</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="C746">
         <f t="shared" ca="1" si="34"/>
-        <v>462721</v>
+        <v>531802</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="C747">
         <f t="shared" ca="1" si="34"/>
-        <v>493155</v>
+        <v>602780</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="C748">
         <f t="shared" ca="1" si="34"/>
-        <v>357164</v>
+        <v>408324</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="C749">
         <f t="shared" ca="1" si="34"/>
-        <v>455068</v>
+        <v>430494</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="C750">
         <f t="shared" ca="1" si="34"/>
-        <v>373357</v>
+        <v>524586</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="C751">
         <f t="shared" ca="1" si="34"/>
-        <v>401809</v>
+        <v>473033</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -23440,7 +23440,7 @@
       </c>
       <c r="C752">
         <f t="shared" ca="1" si="34"/>
-        <v>379882</v>
+        <v>376625</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="C753">
         <f t="shared" ca="1" si="34"/>
-        <v>522217</v>
+        <v>603873</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="C754">
         <f t="shared" ca="1" si="34"/>
-        <v>496353</v>
+        <v>450956</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="C755">
         <f t="shared" ca="1" si="34"/>
-        <v>440365</v>
+        <v>475605</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="C756">
         <f t="shared" ca="1" si="34"/>
-        <v>446821</v>
+        <v>510307</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="C757">
         <f t="shared" ca="1" si="34"/>
-        <v>490762</v>
+        <v>366966</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="C758">
         <f t="shared" ca="1" si="34"/>
-        <v>370544</v>
+        <v>398481</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -23524,7 +23524,7 @@
       </c>
       <c r="C759">
         <f t="shared" ca="1" si="34"/>
-        <v>597079</v>
+        <v>478583</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -23536,11 +23536,11 @@
       </c>
       <c r="C761">
         <f t="shared" ca="1" si="34"/>
-        <v>493729</v>
+        <v>383625</v>
       </c>
       <c r="D761">
         <f t="shared" ca="1" si="34"/>
-        <v>551675</v>
+        <v>570049</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
@@ -23552,7 +23552,7 @@
       </c>
       <c r="C762">
         <f t="shared" ca="1" si="34"/>
-        <v>566746</v>
+        <v>529321</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="C763">
         <f t="shared" ca="1" si="34"/>
-        <v>574826</v>
+        <v>567206</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="C764">
         <f t="shared" ca="1" si="34"/>
-        <v>619642</v>
+        <v>448102</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="C765">
         <f t="shared" ca="1" si="34"/>
-        <v>357611</v>
+        <v>403133</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
@@ -23600,7 +23600,7 @@
       </c>
       <c r="C766">
         <f t="shared" ca="1" si="34"/>
-        <v>413682</v>
+        <v>370641</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -23612,7 +23612,7 @@
       </c>
       <c r="C767">
         <f t="shared" ca="1" si="34"/>
-        <v>370195</v>
+        <v>577316</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
@@ -23624,7 +23624,7 @@
       </c>
       <c r="C768">
         <f t="shared" ca="1" si="34"/>
-        <v>540757</v>
+        <v>555300</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="C769">
         <f t="shared" ca="1" si="34"/>
-        <v>447163</v>
+        <v>611729</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -23648,7 +23648,7 @@
       </c>
       <c r="C770">
         <f t="shared" ca="1" si="34"/>
-        <v>593656</v>
+        <v>595953</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -23660,7 +23660,7 @@
       </c>
       <c r="C771">
         <f t="shared" ca="1" si="34"/>
-        <v>523489</v>
+        <v>375149</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="C772">
         <f t="shared" ca="1" si="34"/>
-        <v>542527</v>
+        <v>373906</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -23684,7 +23684,7 @@
       </c>
       <c r="C773">
         <f t="shared" ca="1" si="34"/>
-        <v>414714</v>
+        <v>558342</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="C774">
         <f t="shared" ca="1" si="34"/>
-        <v>492328</v>
+        <v>511777</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -23708,7 +23708,7 @@
       </c>
       <c r="C775">
         <f t="shared" ca="1" si="34"/>
-        <v>537345</v>
+        <v>581079</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -23720,7 +23720,7 @@
       </c>
       <c r="C776">
         <f t="shared" ca="1" si="34"/>
-        <v>585767</v>
+        <v>370768</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="C777">
         <f t="shared" ca="1" si="34"/>
-        <v>468927</v>
+        <v>390188</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -23744,7 +23744,7 @@
       </c>
       <c r="C778">
         <f t="shared" ca="1" si="34"/>
-        <v>547390</v>
+        <v>619948</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -23756,7 +23756,7 @@
       </c>
       <c r="C779">
         <f t="shared" ca="1" si="34"/>
-        <v>374068</v>
+        <v>622175</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="C780">
         <f t="shared" ca="1" si="34"/>
-        <v>514230</v>
+        <v>506068</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -23780,7 +23780,7 @@
       </c>
       <c r="C781">
         <f t="shared" ca="1" si="34"/>
-        <v>435045</v>
+        <v>608227</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -23792,7 +23792,7 @@
       </c>
       <c r="C782">
         <f t="shared" ca="1" si="34"/>
-        <v>386272</v>
+        <v>379390</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -23804,7 +23804,7 @@
       </c>
       <c r="C783">
         <f t="shared" ca="1" si="34"/>
-        <v>603732</v>
+        <v>356742</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -23816,7 +23816,7 @@
       </c>
       <c r="C784">
         <f t="shared" ca="1" si="34"/>
-        <v>575110</v>
+        <v>449900</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="C785">
         <f t="shared" ca="1" si="34"/>
-        <v>431509</v>
+        <v>460614</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="C786">
         <f t="shared" ca="1" si="34"/>
-        <v>597865</v>
+        <v>503961</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -23852,7 +23852,7 @@
       </c>
       <c r="C787">
         <f t="shared" ca="1" si="34"/>
-        <v>363622</v>
+        <v>601846</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -23864,7 +23864,7 @@
       </c>
       <c r="C788">
         <f t="shared" ca="1" si="34"/>
-        <v>567330</v>
+        <v>406329</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="C789">
         <f t="shared" ca="1" si="34"/>
-        <v>619718</v>
+        <v>410957</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="C790">
         <f t="shared" ca="1" si="34"/>
-        <v>418233</v>
+        <v>582695</v>
       </c>
     </row>
   </sheetData>
@@ -23904,7 +23904,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
